--- a/src/assets/prod maybelen.xlsx
+++ b/src/assets/prod maybelen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4337be3c42c606a/Documentos/MayBelen Jewels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4337be3c42c606a/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="249" documentId="13_ncr:1_{F6A2C821-F95A-40EE-9DD9-E75D66283F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E49CC13A-0A44-483F-BED1-A6DF1EB4CD94}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{F6A2C821-F95A-40EE-9DD9-E75D66283F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0BBDE52-F4AF-424D-A0B7-EF9125AD794D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{C284E6DF-F3BB-4FD9-BA39-9CD5F0F43ECD}"/>
+    <workbookView xWindow="-28920" yWindow="-9360" windowWidth="29040" windowHeight="15720" xr2:uid="{C284E6DF-F3BB-4FD9-BA39-9CD5F0F43ECD}"/>
   </bookViews>
   <sheets>
     <sheet name="Pedidos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="325">
   <si>
     <t>Pulsera Hello Kitty</t>
   </si>
@@ -1008,6 +1008,9 @@
   </si>
   <si>
     <t>Cordones</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -1129,7 +1132,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1156,9 +1159,6 @@
     <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1400,6 +1400,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9306C001-DC4A-40EC-82C7-6C455ACE0409}" name="Tabla1" displayName="Tabla1" ref="B3:N288" totalsRowCount="1" headerRowDxfId="17">
   <autoFilter ref="B3:N287" xr:uid="{9306C001-DC4A-40EC-82C7-6C455ACE0409}"/>
@@ -1413,23 +1417,13 @@
     <tableColumn id="1" xr3:uid="{139C0876-9B2A-4040-9C30-1665D2EE019A}" name="DESCRIPCION" dataDxfId="16"/>
     <tableColumn id="2" xr3:uid="{136B6E5F-2F23-4E02-BCF9-998B43C4A7EA}" name="SUBTOTAL" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="6" dataCellStyle="Moneda"/>
     <tableColumn id="3" xr3:uid="{F3D095EE-4BCD-4E4F-8EB6-8E8122E8F7DB}" name="UNIDADES" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{9FCFDD11-ABF6-4F7C-A4C2-1387110890B3}" name="PRECIO U." dataDxfId="13" dataCellStyle="Moneda">
-      <calculatedColumnFormula>IFERROR(F4/G4*1.2,"")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9FCFDD11-ABF6-4F7C-A4C2-1387110890B3}" name="PRECIO U." dataDxfId="13" dataCellStyle="Moneda"/>
     <tableColumn id="5" xr3:uid="{A7026CE7-9FD9-450B-BFB1-F071BC8B415D}" name="PVF" dataDxfId="12" totalsRowDxfId="5" dataCellStyle="Moneda"/>
-    <tableColumn id="6" xr3:uid="{6EBCE0E6-CD00-4FB3-8999-12E2D13C21A0}" name="TOTAL PVP" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4">
-      <calculatedColumnFormula>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="6" xr3:uid="{6EBCE0E6-CD00-4FB3-8999-12E2D13C21A0}" name="TOTAL PVP" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="4"/>
     <tableColumn id="7" xr3:uid="{A0592091-F7DE-4356-8644-5FBC1AC0C5CF}" name="EMP." dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Moneda"/>
-    <tableColumn id="8" xr3:uid="{47AD6657-BF7D-4B4A-8CF9-E28928C213A1}" name="PVP" dataDxfId="9" totalsRowDxfId="2">
-      <calculatedColumnFormula>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{B0DDAD44-6368-4707-BAB4-4B0137887B52}" name="Rent%" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Porcentaje">
-      <calculatedColumnFormula>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{B32201E5-E150-45A4-9687-D2785F11BC89}" name="Rent$" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="0">
-      <calculatedColumnFormula>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="8" xr3:uid="{47AD6657-BF7D-4B4A-8CF9-E28928C213A1}" name="PVP" dataDxfId="9" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{B0DDAD44-6368-4707-BAB4-4B0137887B52}" name="Rent%" totalsRowFunction="average" dataDxfId="8" totalsRowDxfId="1" dataCellStyle="Porcentaje"/>
+    <tableColumn id="13" xr3:uid="{B32201E5-E150-45A4-9687-D2785F11BC89}" name="Rent$" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
 </table>
@@ -1757,8 +1751,8 @@
   </sheetPr>
   <dimension ref="B3:N288"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A260" zoomScale="80" workbookViewId="0">
-      <selection activeCell="O268" sqref="O268"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1840,29 +1834,24 @@
         <v>1</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H35" si="0">IFERROR(F4/G4*1.2,"")</f>
         <v>4.6680000000000001</v>
       </c>
       <c r="I4" s="8">
         <v>8</v>
       </c>
       <c r="J4" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K4" s="9">
         <v>0</v>
       </c>
       <c r="L4" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M4" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.71379605826906589</v>
       </c>
       <c r="N4" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.3319999999999999</v>
       </c>
     </row>
@@ -1886,29 +1875,24 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
         <v>6.72</v>
       </c>
       <c r="I5" s="8">
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K5" s="9">
         <v>0</v>
       </c>
       <c r="L5" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M5" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.48809523809523814</v>
       </c>
       <c r="N5" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.2800000000000002</v>
       </c>
     </row>
@@ -1932,29 +1916,24 @@
         <v>1</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
         <v>5.76</v>
       </c>
       <c r="I6" s="8">
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K6" s="9">
         <v>0</v>
       </c>
       <c r="L6" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M6" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.73611111111111116</v>
       </c>
       <c r="N6" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.24</v>
       </c>
     </row>
@@ -1978,29 +1957,24 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
         <v>9.4559999999999995</v>
       </c>
       <c r="I7" s="8">
         <v>12</v>
       </c>
       <c r="J7" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K7" s="9">
         <v>0</v>
       </c>
       <c r="L7" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M7" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.26903553299492394</v>
       </c>
       <c r="N7" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.5440000000000005</v>
       </c>
     </row>
@@ -2024,29 +1998,24 @@
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
         <v>9.6359999999999992</v>
       </c>
       <c r="I8" s="8">
         <v>12</v>
       </c>
       <c r="J8" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K8" s="9">
         <v>0</v>
       </c>
       <c r="L8" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M8" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.24533001245330022</v>
       </c>
       <c r="N8" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3640000000000008</v>
       </c>
     </row>
@@ -2070,29 +2039,24 @@
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
         <v>2.1360000000000001</v>
       </c>
       <c r="I9" s="8">
         <v>4</v>
       </c>
       <c r="J9" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K9" s="9">
         <v>0</v>
       </c>
       <c r="L9" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M9" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.87265917602996246</v>
       </c>
       <c r="N9" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8639999999999999</v>
       </c>
     </row>
@@ -2110,36 +2074,30 @@
         <v>1</v>
       </c>
       <c r="F10" s="13">
-        <f>3.63*2</f>
         <v>7.26</v>
       </c>
       <c r="G10" s="14">
         <v>20</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
         <v>0.43559999999999999</v>
       </c>
       <c r="I10" s="8">
         <v>1</v>
       </c>
       <c r="J10" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>20</v>
       </c>
       <c r="K10" s="9">
         <v>0</v>
       </c>
       <c r="L10" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M10" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2956841138659321</v>
       </c>
       <c r="N10" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.56440000000000001</v>
       </c>
     </row>
@@ -2163,29 +2121,24 @@
         <v>10</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
         <v>0.30119999999999997</v>
       </c>
       <c r="I11" s="8">
         <v>1</v>
       </c>
       <c r="J11" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K11" s="9">
         <v>0</v>
       </c>
       <c r="L11" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M11" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3200531208499342</v>
       </c>
       <c r="N11" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.69880000000000009</v>
       </c>
     </row>
@@ -2209,29 +2162,24 @@
         <v>10</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
         <v>0.438</v>
       </c>
       <c r="I12" s="8">
         <v>1</v>
       </c>
       <c r="J12" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K12" s="9">
         <v>0</v>
       </c>
       <c r="L12" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M12" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2831050228310503</v>
       </c>
       <c r="N12" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.56200000000000006</v>
       </c>
     </row>
@@ -2249,36 +2197,30 @@
         <v>15</v>
       </c>
       <c r="F13" s="13">
-        <f>1.39*2</f>
         <v>2.78</v>
       </c>
       <c r="G13" s="14">
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
         <v>1.6679999999999999</v>
       </c>
       <c r="I13" s="8">
         <v>4</v>
       </c>
       <c r="J13" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K13" s="9">
         <v>1</v>
       </c>
       <c r="L13" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M13" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3980815347721822</v>
       </c>
       <c r="N13" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3319999999999999</v>
       </c>
     </row>
@@ -2302,29 +2244,24 @@
         <v>2</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
         <v>1.1459999999999999</v>
       </c>
       <c r="I14" s="8">
         <v>3</v>
       </c>
       <c r="J14" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K14" s="9">
         <v>1</v>
       </c>
       <c r="L14" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M14" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6178010471204192</v>
       </c>
       <c r="N14" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8540000000000001</v>
       </c>
     </row>
@@ -2348,29 +2285,24 @@
         <v>12</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
         <v>0.16200000000000001</v>
       </c>
       <c r="I15" s="8">
         <v>0.5</v>
       </c>
       <c r="J15" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K15" s="9">
         <v>0</v>
       </c>
       <c r="L15" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.5</v>
       </c>
       <c r="M15" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.0864197530864197</v>
       </c>
       <c r="N15" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.33799999999999997</v>
       </c>
     </row>
@@ -2394,29 +2326,24 @@
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
         <v>0.66599999999999993</v>
       </c>
       <c r="I16" s="8">
         <v>1.5</v>
       </c>
       <c r="J16" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K16" s="9">
         <v>0.5</v>
       </c>
       <c r="L16" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
       <c r="M16" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2522522522522526</v>
       </c>
       <c r="N16" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.83400000000000007</v>
       </c>
     </row>
@@ -2440,29 +2367,24 @@
         <v>1</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
         <v>0.92399999999999993</v>
       </c>
       <c r="I17" s="8">
         <v>2.5</v>
       </c>
       <c r="J17" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2.5</v>
       </c>
       <c r="K17" s="9">
         <v>0.5</v>
       </c>
       <c r="L17" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M17" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.7056277056277058</v>
       </c>
       <c r="N17" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5760000000000001</v>
       </c>
     </row>
@@ -2486,29 +2408,24 @@
         <v>1</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
         <v>7.056</v>
       </c>
       <c r="I18" s="8">
         <v>12</v>
       </c>
       <c r="J18" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K18" s="9">
         <v>0</v>
       </c>
       <c r="L18" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M18" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70068027210884354</v>
       </c>
       <c r="N18" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.944</v>
       </c>
     </row>
@@ -2532,29 +2449,24 @@
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
         <v>4.1280000000000001</v>
       </c>
       <c r="I19" s="8">
         <v>6</v>
       </c>
       <c r="J19" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K19" s="9">
         <v>0.5</v>
       </c>
       <c r="L19" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6.5</v>
       </c>
       <c r="M19" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.45348837209302323</v>
       </c>
       <c r="N19" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8719999999999999</v>
       </c>
     </row>
@@ -2578,29 +2490,24 @@
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
         <v>2.2799999999999998</v>
       </c>
       <c r="I20" s="8">
         <v>3</v>
       </c>
       <c r="J20" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K20" s="9">
         <v>0.5</v>
       </c>
       <c r="L20" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M20" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.31578947368421062</v>
       </c>
       <c r="N20" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.7200000000000002</v>
       </c>
     </row>
@@ -2624,29 +2531,24 @@
         <v>1</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="I21" s="8">
         <v>3</v>
       </c>
       <c r="J21" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K21" s="9">
         <v>0.5</v>
       </c>
       <c r="L21" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M21" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.35135135135135126</v>
       </c>
       <c r="N21" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.7799999999999998</v>
       </c>
     </row>
@@ -2670,29 +2572,24 @@
         <v>1</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
         <v>1.764</v>
       </c>
       <c r="I22" s="8">
         <v>3</v>
       </c>
       <c r="J22" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K22" s="9">
         <v>0.5</v>
       </c>
       <c r="L22" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M22" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70068027210884354</v>
       </c>
       <c r="N22" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.236</v>
       </c>
     </row>
@@ -2716,29 +2613,24 @@
         <v>1</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
         <v>2.016</v>
       </c>
       <c r="I23" s="8">
         <v>3</v>
       </c>
       <c r="J23" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K23" s="9">
         <v>0.5</v>
       </c>
       <c r="L23" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M23" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.48809523809523808</v>
       </c>
       <c r="N23" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.98399999999999999</v>
       </c>
     </row>
@@ -2762,29 +2654,24 @@
         <v>1</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
         <v>1.5960000000000001</v>
       </c>
       <c r="I24" s="8">
         <v>2.5</v>
       </c>
       <c r="J24" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2.5</v>
       </c>
       <c r="K24" s="9">
         <v>0.5</v>
       </c>
       <c r="L24" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M24" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.5664160401002506</v>
       </c>
       <c r="N24" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.90399999999999991</v>
       </c>
     </row>
@@ -2808,29 +2695,24 @@
         <v>6</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
       <c r="I25" s="8">
         <v>0.75</v>
       </c>
       <c r="J25" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4.5</v>
       </c>
       <c r="K25" s="9">
         <v>0</v>
       </c>
       <c r="L25" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.75</v>
       </c>
       <c r="M25" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5</v>
       </c>
       <c r="N25" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.45</v>
       </c>
     </row>
@@ -2854,29 +2736,24 @@
         <v>1</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
         <v>3.12</v>
       </c>
       <c r="I26" s="8">
         <v>4</v>
       </c>
       <c r="J26" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K26" s="9">
         <v>0.5</v>
       </c>
       <c r="L26" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4.5</v>
       </c>
       <c r="M26" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.28205128205128199</v>
       </c>
       <c r="N26" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.87999999999999989</v>
       </c>
     </row>
@@ -2900,29 +2777,24 @@
         <v>1</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
         <v>4.7880000000000003</v>
       </c>
       <c r="I27" s="8">
         <v>8</v>
       </c>
       <c r="J27" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K27" s="9">
         <v>0</v>
       </c>
       <c r="L27" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M27" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.67084377610693391</v>
       </c>
       <c r="N27" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.2119999999999997</v>
       </c>
     </row>
@@ -2946,29 +2818,24 @@
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
         <v>8.2199999999999989</v>
       </c>
       <c r="I28" s="8">
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K28" s="9">
         <v>0</v>
       </c>
       <c r="L28" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M28" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.2165450121654503</v>
       </c>
       <c r="N28" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.7800000000000011</v>
       </c>
     </row>
@@ -2992,29 +2859,24 @@
         <v>6</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
         <v>0.55399999999999994</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
       </c>
       <c r="J29" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K29" s="9">
         <v>0</v>
       </c>
       <c r="L29" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M29" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.80505415162454896</v>
       </c>
       <c r="N29" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.44600000000000006</v>
       </c>
     </row>
@@ -3038,29 +2900,24 @@
         <v>1</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
         <v>0.92399999999999993</v>
       </c>
       <c r="I30" s="8">
         <v>2</v>
       </c>
       <c r="J30" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2</v>
       </c>
       <c r="K30" s="9">
         <v>0</v>
       </c>
       <c r="L30" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
       <c r="M30" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1645021645021647</v>
       </c>
       <c r="N30" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0760000000000001</v>
       </c>
     </row>
@@ -3084,29 +2941,24 @@
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
         <v>3.3239999999999998</v>
       </c>
       <c r="I31" s="8">
         <v>6</v>
       </c>
       <c r="J31" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K31" s="9">
         <v>0</v>
       </c>
       <c r="L31" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M31" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.80505415162454885</v>
       </c>
       <c r="N31" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.6760000000000002</v>
       </c>
     </row>
@@ -3130,29 +2982,24 @@
         <v>1</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="0"/>
         <v>5.3159999999999998</v>
       </c>
       <c r="I32" s="8">
         <v>7</v>
       </c>
       <c r="J32" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K32" s="9">
         <v>0</v>
       </c>
       <c r="L32" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M32" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.31677953348382248</v>
       </c>
       <c r="N32" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6840000000000002</v>
       </c>
     </row>
@@ -3176,29 +3023,24 @@
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="0"/>
         <v>3.3239999999999998</v>
       </c>
       <c r="I33" s="8">
         <v>4</v>
       </c>
       <c r="J33" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K33" s="9">
         <v>0</v>
       </c>
       <c r="L33" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M33" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.20336943441636587</v>
       </c>
       <c r="N33" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.67600000000000016</v>
       </c>
     </row>
@@ -3222,29 +3064,24 @@
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="0"/>
         <v>1.02</v>
       </c>
       <c r="I34" s="8">
         <v>2</v>
       </c>
       <c r="J34" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2</v>
       </c>
       <c r="K34" s="9">
         <v>0</v>
       </c>
       <c r="L34" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
       <c r="M34" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.96078431372549011</v>
       </c>
       <c r="N34" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.98</v>
       </c>
     </row>
@@ -3268,29 +3105,24 @@
         <v>1</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="0"/>
         <v>1.3440000000000001</v>
       </c>
       <c r="I35" s="8">
         <v>2.5</v>
       </c>
       <c r="J35" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2.5</v>
       </c>
       <c r="K35" s="9">
         <v>0.5</v>
       </c>
       <c r="L35" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M35" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.86011904761904745</v>
       </c>
       <c r="N35" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1559999999999999</v>
       </c>
     </row>
@@ -3314,29 +3146,24 @@
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" ref="H36:H67" si="1">IFERROR(F36/G36*1.2,"")</f>
         <v>2.1240000000000001</v>
       </c>
       <c r="I36" s="8">
         <v>3</v>
       </c>
       <c r="J36" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K36" s="9">
         <v>0</v>
       </c>
       <c r="L36" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M36" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.41242937853107337</v>
       </c>
       <c r="N36" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.87599999999999989</v>
       </c>
     </row>
@@ -3360,29 +3187,24 @@
         <v>1</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
         <v>1.452</v>
       </c>
       <c r="I37" s="8">
         <v>2.5</v>
       </c>
       <c r="J37" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2.5</v>
       </c>
       <c r="K37" s="9">
         <v>0</v>
       </c>
       <c r="L37" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.5</v>
       </c>
       <c r="M37" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.72176308539944911</v>
       </c>
       <c r="N37" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.048</v>
       </c>
     </row>
@@ -3406,29 +3228,24 @@
         <v>1</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
         <v>5.3159999999999998</v>
       </c>
       <c r="I38" s="8">
         <v>7</v>
       </c>
       <c r="J38" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K38" s="9">
         <v>0</v>
       </c>
       <c r="L38" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M38" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.31677953348382248</v>
       </c>
       <c r="N38" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6840000000000002</v>
       </c>
     </row>
@@ -3452,29 +3269,24 @@
         <v>1</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="1"/>
         <v>2.1360000000000001</v>
       </c>
       <c r="I39" s="8">
         <v>3</v>
       </c>
       <c r="J39" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K39" s="9">
         <v>1</v>
       </c>
       <c r="L39" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M39" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.40449438202247184</v>
       </c>
       <c r="N39" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.86399999999999988</v>
       </c>
     </row>
@@ -3498,29 +3310,24 @@
         <v>1</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="1"/>
         <v>5.7960000000000003</v>
       </c>
       <c r="I40" s="8">
         <v>10</v>
       </c>
       <c r="J40" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K40" s="9">
         <v>0</v>
       </c>
       <c r="L40" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M40" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.72532781228433396</v>
       </c>
       <c r="N40" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.2039999999999997</v>
       </c>
     </row>
@@ -3544,29 +3351,24 @@
         <v>12</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="1"/>
         <v>0.32600000000000001</v>
       </c>
       <c r="I41" s="8">
         <v>0.5</v>
       </c>
       <c r="J41" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K41" s="9">
         <v>0</v>
       </c>
       <c r="L41" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.5</v>
       </c>
       <c r="M41" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.53374233128834347</v>
       </c>
       <c r="N41" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.17399999999999999</v>
       </c>
     </row>
@@ -3590,29 +3392,24 @@
         <v>1</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="1"/>
         <v>5.22</v>
       </c>
       <c r="I42" s="8">
         <v>7</v>
       </c>
       <c r="J42" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K42" s="9">
         <v>0</v>
       </c>
       <c r="L42" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M42" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.34099616858237553</v>
       </c>
       <c r="N42" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.7800000000000002</v>
       </c>
     </row>
@@ -3636,29 +3433,24 @@
         <v>18</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="1"/>
         <v>0.11666666666666667</v>
       </c>
       <c r="I43" s="8">
         <v>0.5</v>
       </c>
       <c r="J43" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>9</v>
       </c>
       <c r="K43" s="9">
         <v>0</v>
       </c>
       <c r="L43" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.5</v>
       </c>
       <c r="M43" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.2857142857142856</v>
       </c>
       <c r="N43" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.3833333333333333</v>
       </c>
     </row>
@@ -3682,29 +3474,24 @@
         <v>40</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="1"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="I44" s="8">
         <v>0.15</v>
       </c>
       <c r="J44" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K44" s="9">
         <v>0</v>
       </c>
       <c r="L44" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.15</v>
       </c>
       <c r="M44" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="N44" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.105</v>
       </c>
     </row>
@@ -3728,29 +3515,24 @@
         <v>7</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="1"/>
         <v>1.1040000000000001</v>
       </c>
       <c r="I45" s="8">
         <v>2</v>
       </c>
       <c r="J45" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>14</v>
       </c>
       <c r="K45" s="9">
         <v>0.5</v>
       </c>
       <c r="L45" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.5</v>
       </c>
       <c r="M45" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.81159420289855055</v>
       </c>
       <c r="N45" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.89599999999999991</v>
       </c>
     </row>
@@ -3774,29 +3556,24 @@
         <v>2</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="1"/>
         <v>0.66</v>
       </c>
       <c r="I46" s="8">
         <v>0.75</v>
       </c>
       <c r="J46" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>1.5</v>
       </c>
       <c r="K46" s="9">
         <v>0</v>
       </c>
       <c r="L46" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.75</v>
       </c>
       <c r="M46" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.1363636363636363</v>
       </c>
       <c r="N46" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>8.9999999999999969E-2</v>
       </c>
     </row>
@@ -3820,29 +3597,24 @@
         <v>6</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="1"/>
         <v>0.78399999999999992</v>
       </c>
       <c r="I47" s="8">
         <v>1</v>
       </c>
       <c r="J47" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K47" s="9">
         <v>0</v>
       </c>
       <c r="L47" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M47" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.27551020408163279</v>
       </c>
       <c r="N47" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.21600000000000008</v>
       </c>
     </row>
@@ -3866,29 +3638,24 @@
         <v>24</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="1"/>
         <v>0.13999999999999999</v>
       </c>
       <c r="I48" s="8">
         <v>0.5</v>
       </c>
       <c r="J48" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K48" s="9">
         <v>0</v>
       </c>
       <c r="L48" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.5</v>
       </c>
       <c r="M48" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.5714285714285716</v>
       </c>
       <c r="N48" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.36</v>
       </c>
     </row>
@@ -3912,29 +3679,24 @@
         <v>1</v>
       </c>
       <c r="H49" s="1">
-        <f t="shared" si="1"/>
         <v>7.6199999999999992</v>
       </c>
       <c r="I49" s="8">
         <v>10</v>
       </c>
       <c r="J49" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K49" s="9">
         <v>0</v>
       </c>
       <c r="L49" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M49" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.31233595800524949</v>
       </c>
       <c r="N49" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3800000000000008</v>
       </c>
     </row>
@@ -3958,29 +3720,24 @@
         <v>1</v>
       </c>
       <c r="H50" s="1">
-        <f t="shared" si="1"/>
         <v>2.2679999999999998</v>
       </c>
       <c r="I50" s="8">
         <v>3</v>
       </c>
       <c r="J50" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K50" s="9">
         <v>0</v>
       </c>
       <c r="L50" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M50" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.32275132275132284</v>
       </c>
       <c r="N50" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.73200000000000021</v>
       </c>
     </row>
@@ -4004,29 +3761,24 @@
         <v>1</v>
       </c>
       <c r="H51" s="1">
-        <f t="shared" si="1"/>
         <v>1.8119999999999998</v>
       </c>
       <c r="I51" s="8">
         <v>3</v>
       </c>
       <c r="J51" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K51" s="9">
         <v>0</v>
       </c>
       <c r="L51" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M51" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.65562913907284781</v>
       </c>
       <c r="N51" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1880000000000002</v>
       </c>
     </row>
@@ -4050,29 +3802,24 @@
         <v>1</v>
       </c>
       <c r="H52" s="1">
-        <f t="shared" si="1"/>
         <v>1.68</v>
       </c>
       <c r="I52" s="8">
         <v>3</v>
       </c>
       <c r="J52" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K52" s="9">
         <v>0</v>
       </c>
       <c r="L52" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M52" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.78571428571428581</v>
       </c>
       <c r="N52" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.32</v>
       </c>
     </row>
@@ -4096,29 +3843,24 @@
         <v>1</v>
       </c>
       <c r="H53" s="1">
-        <f t="shared" si="1"/>
         <v>2.7119999999999997</v>
       </c>
       <c r="I53" s="8">
         <v>4</v>
       </c>
       <c r="J53" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K53" s="9">
         <v>0</v>
       </c>
       <c r="L53" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M53" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.47492625368731578</v>
       </c>
       <c r="N53" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2880000000000003</v>
       </c>
     </row>
@@ -4142,29 +3884,24 @@
         <v>1</v>
       </c>
       <c r="H54" s="1">
-        <f t="shared" si="1"/>
         <v>2.004</v>
       </c>
       <c r="I54" s="8">
         <v>3</v>
       </c>
       <c r="J54" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K54" s="9">
         <v>0</v>
       </c>
       <c r="L54" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M54" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.49700598802395207</v>
       </c>
       <c r="N54" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.996</v>
       </c>
     </row>
@@ -4188,29 +3925,24 @@
         <v>1</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="1"/>
         <v>1.032</v>
       </c>
       <c r="I55" s="8">
         <v>2</v>
       </c>
       <c r="J55" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2</v>
       </c>
       <c r="K55" s="9">
         <v>0.5</v>
       </c>
       <c r="L55" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.5</v>
       </c>
       <c r="M55" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.93798449612403101</v>
       </c>
       <c r="N55" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.96799999999999997</v>
       </c>
     </row>
@@ -4234,29 +3966,24 @@
         <v>1</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="1"/>
         <v>1.8599999999999999</v>
       </c>
       <c r="I56" s="8">
         <v>3</v>
       </c>
       <c r="J56" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K56" s="9">
         <v>0.5</v>
       </c>
       <c r="L56" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M56" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.61290322580645173</v>
       </c>
       <c r="N56" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1400000000000001</v>
       </c>
     </row>
@@ -4280,29 +4007,24 @@
         <v>1</v>
       </c>
       <c r="H57" s="1">
-        <f t="shared" si="1"/>
         <v>1.6440000000000001</v>
       </c>
       <c r="I57" s="8">
         <v>3</v>
       </c>
       <c r="J57" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K57" s="9">
         <v>0.5</v>
       </c>
       <c r="L57" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M57" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.82481751824817506</v>
       </c>
       <c r="N57" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3559999999999999</v>
       </c>
     </row>
@@ -4326,29 +4048,24 @@
         <v>1</v>
       </c>
       <c r="H58" s="1">
-        <f t="shared" si="1"/>
         <v>2.028</v>
       </c>
       <c r="I58" s="8">
         <v>3</v>
       </c>
       <c r="J58" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K58" s="9">
         <v>0.5</v>
       </c>
       <c r="L58" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M58" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.47928994082840237</v>
       </c>
       <c r="N58" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.97199999999999998</v>
       </c>
     </row>
@@ -4372,29 +4089,24 @@
         <v>1</v>
       </c>
       <c r="H59" s="1">
-        <f t="shared" si="1"/>
         <v>1.8839999999999999</v>
       </c>
       <c r="I59" s="8">
         <v>3</v>
       </c>
       <c r="J59" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K59" s="9">
         <v>0</v>
       </c>
       <c r="L59" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M59" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.59235668789808926</v>
       </c>
       <c r="N59" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1160000000000001</v>
       </c>
     </row>
@@ -4418,29 +4130,24 @@
         <v>4</v>
       </c>
       <c r="H60" s="1">
-        <f t="shared" si="1"/>
         <v>0.59099999999999997</v>
       </c>
       <c r="I60" s="8">
         <v>0.75</v>
       </c>
       <c r="J60" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K60" s="9">
         <v>0.5</v>
       </c>
       <c r="L60" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.25</v>
       </c>
       <c r="M60" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.26903553299492394</v>
       </c>
       <c r="N60" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.15900000000000003</v>
       </c>
     </row>
@@ -4464,27 +4171,22 @@
         <v>1</v>
       </c>
       <c r="H61" s="1">
-        <f t="shared" si="1"/>
         <v>3.36</v>
       </c>
       <c r="I61" s="16">
         <v>5</v>
       </c>
       <c r="J61" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K61" s="9"/>
       <c r="L61" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M61" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.48809523809523814</v>
       </c>
       <c r="N61" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6400000000000001</v>
       </c>
     </row>
@@ -4508,27 +4210,22 @@
         <v>5</v>
       </c>
       <c r="H62" s="1">
-        <f t="shared" si="1"/>
         <v>0.89279999999999993</v>
       </c>
       <c r="I62" s="16">
         <v>2.5</v>
       </c>
       <c r="J62" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12.5</v>
       </c>
       <c r="K62" s="9"/>
       <c r="L62" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.5</v>
       </c>
       <c r="M62" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8001792114695343</v>
       </c>
       <c r="N62" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6072000000000002</v>
       </c>
     </row>
@@ -4552,27 +4249,22 @@
         <v>5</v>
       </c>
       <c r="H63" s="1">
-        <f t="shared" si="1"/>
         <v>0.48960000000000004</v>
       </c>
       <c r="I63" s="16">
         <v>1</v>
       </c>
       <c r="J63" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K63" s="9"/>
       <c r="L63" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M63" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0424836601307188</v>
       </c>
       <c r="N63" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.51039999999999996</v>
       </c>
     </row>
@@ -4596,27 +4288,22 @@
         <v>1</v>
       </c>
       <c r="H64" s="1">
-        <f t="shared" si="1"/>
         <v>5.6159999999999997</v>
       </c>
       <c r="I64" s="16">
         <v>7</v>
       </c>
       <c r="J64" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K64" s="9"/>
       <c r="L64" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M64" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.24643874643874653</v>
       </c>
       <c r="N64" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3840000000000003</v>
       </c>
     </row>
@@ -4640,27 +4327,22 @@
         <v>1</v>
       </c>
       <c r="H65" s="1">
-        <f t="shared" si="1"/>
         <v>18.731999999999999</v>
       </c>
       <c r="I65" s="16">
         <v>20</v>
       </c>
       <c r="J65" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>20</v>
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>20</v>
       </c>
       <c r="M65" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>6.7691650651291943E-2</v>
       </c>
       <c r="N65" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2680000000000007</v>
       </c>
     </row>
@@ -4684,27 +4366,22 @@
         <v>1</v>
       </c>
       <c r="H66" s="1">
-        <f t="shared" si="1"/>
         <v>5.1119999999999992</v>
       </c>
       <c r="I66" s="16">
         <v>7</v>
       </c>
       <c r="J66" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M66" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.36932707355242589</v>
       </c>
       <c r="N66" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8880000000000008</v>
       </c>
     </row>
@@ -4728,27 +4405,22 @@
         <v>1</v>
       </c>
       <c r="H67" s="1">
-        <f t="shared" si="1"/>
         <v>5.8079999999999998</v>
       </c>
       <c r="I67" s="16">
         <v>7</v>
       </c>
       <c r="J67" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K67" s="9"/>
       <c r="L67" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M67" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.20523415977961437</v>
       </c>
       <c r="N67" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1920000000000002</v>
       </c>
     </row>
@@ -4772,27 +4444,22 @@
         <v>1</v>
       </c>
       <c r="H68" s="1">
-        <f t="shared" ref="H68:H99" si="2">IFERROR(F68/G68*1.2,"")</f>
         <v>5.9279999999999999</v>
       </c>
       <c r="I68" s="16">
         <v>8</v>
       </c>
       <c r="J68" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K68" s="9"/>
       <c r="L68" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M68" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.34952766531713902</v>
       </c>
       <c r="N68" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.0720000000000001</v>
       </c>
     </row>
@@ -4816,27 +4483,22 @@
         <v>1</v>
       </c>
       <c r="H69" s="1">
-        <f t="shared" si="2"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="I69" s="16">
         <v>3</v>
       </c>
       <c r="J69" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K69" s="9"/>
       <c r="L69" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M69" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.66666666666666685</v>
       </c>
       <c r="N69" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2000000000000002</v>
       </c>
     </row>
@@ -4860,27 +4522,22 @@
         <v>1</v>
       </c>
       <c r="H70" s="1">
-        <f t="shared" si="2"/>
         <v>3.36</v>
       </c>
       <c r="I70" s="16">
         <v>5</v>
       </c>
       <c r="J70" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M70" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.48809523809523814</v>
       </c>
       <c r="N70" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6400000000000001</v>
       </c>
     </row>
@@ -4904,27 +4561,22 @@
         <v>1</v>
       </c>
       <c r="H71" s="1">
-        <f t="shared" si="2"/>
         <v>7.1879999999999997</v>
       </c>
       <c r="I71" s="16">
         <v>8</v>
       </c>
       <c r="J71" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K71" s="9"/>
       <c r="L71" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M71" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.11296605453533672</v>
       </c>
       <c r="N71" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.81200000000000028</v>
       </c>
     </row>
@@ -4948,27 +4600,22 @@
         <v>10</v>
       </c>
       <c r="H72" s="1">
-        <f t="shared" si="2"/>
         <v>0.53039999999999998</v>
       </c>
       <c r="I72" s="16">
         <v>1</v>
       </c>
       <c r="J72" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K72" s="9"/>
       <c r="L72" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M72" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.88536953242835603</v>
       </c>
       <c r="N72" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.46960000000000002</v>
       </c>
     </row>
@@ -4992,27 +4639,22 @@
         <v>1</v>
       </c>
       <c r="H73" s="1">
-        <f t="shared" si="2"/>
         <v>8.3759999999999994</v>
       </c>
       <c r="I73" s="16">
         <v>12</v>
       </c>
       <c r="J73" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M73" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.43266475644699148</v>
       </c>
       <c r="N73" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.6240000000000006</v>
       </c>
     </row>
@@ -5036,27 +4678,22 @@
         <v>1</v>
       </c>
       <c r="H74" s="1">
-        <f t="shared" si="2"/>
         <v>2.82</v>
       </c>
       <c r="I74" s="16">
         <v>6</v>
       </c>
       <c r="J74" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M74" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1276595744680853</v>
       </c>
       <c r="N74" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.18</v>
       </c>
     </row>
@@ -5080,27 +4717,22 @@
         <v>1</v>
       </c>
       <c r="H75" s="1">
-        <f t="shared" si="2"/>
         <v>4.7519999999999998</v>
       </c>
       <c r="I75" s="16">
         <v>7</v>
       </c>
       <c r="J75" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M75" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.47306397306397313</v>
       </c>
       <c r="N75" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.2480000000000002</v>
       </c>
     </row>
@@ -5124,27 +4756,22 @@
         <v>5</v>
       </c>
       <c r="H76" s="1">
-        <f t="shared" si="2"/>
         <v>0.83039999999999992</v>
       </c>
       <c r="I76" s="16">
         <v>2</v>
       </c>
       <c r="J76" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
       <c r="M76" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.4084778420038537</v>
       </c>
       <c r="N76" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1696</v>
       </c>
     </row>
@@ -5168,27 +4795,22 @@
         <v>6</v>
       </c>
       <c r="H77" s="1">
-        <f t="shared" si="2"/>
         <v>0.8640000000000001</v>
       </c>
       <c r="I77" s="16">
         <v>2.5</v>
       </c>
       <c r="J77" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K77" s="9"/>
       <c r="L77" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.5</v>
       </c>
       <c r="M77" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8935185185185182</v>
       </c>
       <c r="N77" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6359999999999999</v>
       </c>
     </row>
@@ -5212,27 +4834,22 @@
         <v>1</v>
       </c>
       <c r="H78" s="1">
-        <f t="shared" si="2"/>
         <v>8.0280000000000005</v>
       </c>
       <c r="I78" s="16">
         <v>13</v>
       </c>
       <c r="J78" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>13</v>
       </c>
       <c r="K78" s="9"/>
       <c r="L78" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>13</v>
       </c>
       <c r="M78" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.61933233682112598</v>
       </c>
       <c r="N78" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.9719999999999995</v>
       </c>
     </row>
@@ -5256,27 +4873,22 @@
         <v>5</v>
       </c>
       <c r="H79" s="1">
-        <f t="shared" si="2"/>
         <v>0.47039999999999998</v>
       </c>
       <c r="I79" s="16">
         <v>1</v>
       </c>
       <c r="J79" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M79" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1258503401360547</v>
       </c>
       <c r="N79" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.52960000000000007</v>
       </c>
     </row>
@@ -5300,27 +4912,22 @@
         <v>6</v>
       </c>
       <c r="H80" s="1">
-        <f t="shared" si="2"/>
         <v>0.30599999999999999</v>
       </c>
       <c r="I80" s="16">
         <v>1</v>
       </c>
       <c r="J80" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K80" s="9"/>
       <c r="L80" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M80" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.2679738562091503</v>
       </c>
       <c r="N80" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.69399999999999995</v>
       </c>
     </row>
@@ -5344,27 +4951,22 @@
         <v>6</v>
       </c>
       <c r="H81" s="1">
-        <f t="shared" si="2"/>
         <v>0.45599999999999991</v>
       </c>
       <c r="I81" s="16">
         <v>1</v>
       </c>
       <c r="J81" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K81" s="9"/>
       <c r="L81" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M81" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1929824561403513</v>
       </c>
       <c r="N81" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.54400000000000004</v>
       </c>
     </row>
@@ -5388,27 +4990,22 @@
         <v>20</v>
       </c>
       <c r="H82" s="1">
-        <f t="shared" si="2"/>
         <v>0.94979999999999998</v>
       </c>
       <c r="I82" s="16">
         <v>1.5</v>
       </c>
       <c r="J82" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>30</v>
       </c>
       <c r="K82" s="9"/>
       <c r="L82" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.5</v>
       </c>
       <c r="M82" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.5792798483891346</v>
       </c>
       <c r="N82" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.55020000000000002</v>
       </c>
     </row>
@@ -5432,27 +5029,22 @@
         <v>1</v>
       </c>
       <c r="H83" s="1">
-        <f t="shared" si="2"/>
         <v>3.1319999999999997</v>
       </c>
       <c r="I83" s="16">
         <v>6</v>
       </c>
       <c r="J83" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K83" s="9"/>
       <c r="L83" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M83" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.91570881226053658</v>
       </c>
       <c r="N83" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.8680000000000003</v>
       </c>
     </row>
@@ -5476,27 +5068,22 @@
         <v>1</v>
       </c>
       <c r="H84" s="1">
-        <f t="shared" si="2"/>
         <v>2.4599999999999995</v>
       </c>
       <c r="I84" s="16">
         <v>5</v>
       </c>
       <c r="J84" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K84" s="9"/>
       <c r="L84" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M84" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0325203252032524</v>
       </c>
       <c r="N84" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.5400000000000005</v>
       </c>
     </row>
@@ -5520,27 +5107,22 @@
         <v>1</v>
       </c>
       <c r="H85" s="1">
-        <f t="shared" si="2"/>
         <v>3.8519999999999999</v>
       </c>
       <c r="I85" s="16">
         <v>10</v>
       </c>
       <c r="J85" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K85" s="9"/>
       <c r="L85" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M85" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5960539979231567</v>
       </c>
       <c r="N85" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>6.1479999999999997</v>
       </c>
     </row>
@@ -5564,27 +5146,22 @@
         <v>1</v>
       </c>
       <c r="H86" s="1">
-        <f t="shared" si="2"/>
         <v>4.4160000000000004</v>
       </c>
       <c r="I86" s="16">
         <v>10</v>
       </c>
       <c r="J86" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K86" s="9"/>
       <c r="L86" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M86" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2644927536231882</v>
       </c>
       <c r="N86" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.5839999999999996</v>
       </c>
     </row>
@@ -5608,27 +5185,22 @@
         <v>1</v>
       </c>
       <c r="H87" s="1">
-        <f t="shared" si="2"/>
         <v>1.1639999999999999</v>
       </c>
       <c r="I87" s="16">
         <v>3</v>
       </c>
       <c r="J87" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K87" s="9"/>
       <c r="L87" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M87" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5773195876288661</v>
       </c>
       <c r="N87" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8360000000000001</v>
       </c>
     </row>
@@ -5652,27 +5224,22 @@
         <v>1</v>
       </c>
       <c r="H88" s="1">
-        <f t="shared" si="2"/>
         <v>5.3280000000000003</v>
       </c>
       <c r="I88" s="16">
         <v>10</v>
       </c>
       <c r="J88" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K88" s="9"/>
       <c r="L88" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M88" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.87687687687687677</v>
       </c>
       <c r="N88" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.6719999999999997</v>
       </c>
     </row>
@@ -5696,27 +5263,22 @@
         <v>1</v>
       </c>
       <c r="H89" s="1">
-        <f t="shared" si="2"/>
         <v>2.1960000000000002</v>
       </c>
       <c r="I89" s="16">
         <v>5</v>
       </c>
       <c r="J89" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K89" s="9"/>
       <c r="L89" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M89" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2768670309653913</v>
       </c>
       <c r="N89" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.8039999999999998</v>
       </c>
     </row>
@@ -5740,27 +5302,22 @@
         <v>1</v>
       </c>
       <c r="H90" s="1">
-        <f t="shared" si="2"/>
         <v>2.1480000000000001</v>
       </c>
       <c r="I90" s="16">
         <v>4</v>
       </c>
       <c r="J90" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K90" s="9"/>
       <c r="L90" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M90" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.86219739292364983</v>
       </c>
       <c r="N90" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8519999999999999</v>
       </c>
     </row>
@@ -5784,27 +5341,22 @@
         <v>1</v>
       </c>
       <c r="H91" s="1">
-        <f t="shared" si="2"/>
         <v>2.004</v>
       </c>
       <c r="I91" s="16">
         <v>3</v>
       </c>
       <c r="J91" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K91" s="9"/>
       <c r="L91" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M91" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.49700598802395207</v>
       </c>
       <c r="N91" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.996</v>
       </c>
     </row>
@@ -5828,27 +5380,22 @@
         <v>1</v>
       </c>
       <c r="H92" s="1">
-        <f t="shared" si="2"/>
         <v>4.4640000000000004</v>
       </c>
       <c r="I92" s="16">
         <v>7</v>
       </c>
       <c r="J92" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K92" s="9"/>
       <c r="L92" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M92" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.56810035842293893</v>
       </c>
       <c r="N92" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.5359999999999996</v>
       </c>
     </row>
@@ -5872,27 +5419,22 @@
         <v>1</v>
       </c>
       <c r="H93" s="1">
-        <f t="shared" si="2"/>
         <v>1.8239999999999998</v>
       </c>
       <c r="I93" s="16">
         <v>3</v>
       </c>
       <c r="J93" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K93" s="9"/>
       <c r="L93" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M93" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.64473684210526327</v>
       </c>
       <c r="N93" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1760000000000002</v>
       </c>
     </row>
@@ -5916,27 +5458,22 @@
         <v>1</v>
       </c>
       <c r="H94" s="1">
-        <f t="shared" si="2"/>
         <v>1.236</v>
       </c>
       <c r="I94" s="16">
         <v>3</v>
       </c>
       <c r="J94" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K94" s="9"/>
       <c r="L94" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M94" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.4271844660194175</v>
       </c>
       <c r="N94" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.764</v>
       </c>
     </row>
@@ -5960,27 +5497,22 @@
         <v>1</v>
       </c>
       <c r="H95" s="1">
-        <f t="shared" si="2"/>
         <v>4.452</v>
       </c>
       <c r="I95" s="16">
         <v>7</v>
       </c>
       <c r="J95" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K95" s="9"/>
       <c r="L95" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M95" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.57232704402515722</v>
       </c>
       <c r="N95" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.548</v>
       </c>
     </row>
@@ -6004,27 +5536,22 @@
         <v>1</v>
       </c>
       <c r="H96" s="1">
-        <f t="shared" si="2"/>
         <v>0.88800000000000001</v>
       </c>
       <c r="I96" s="16">
         <v>3</v>
       </c>
       <c r="J96" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M96" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3783783783783785</v>
       </c>
       <c r="N96" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.1120000000000001</v>
       </c>
     </row>
@@ -6048,27 +5575,22 @@
         <v>1</v>
       </c>
       <c r="H97" s="1">
-        <f t="shared" si="2"/>
         <v>4.4400000000000004</v>
       </c>
       <c r="I97" s="16">
         <v>8</v>
       </c>
       <c r="J97" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K97" s="9"/>
       <c r="L97" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M97" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.80180180180180161</v>
       </c>
       <c r="N97" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.5599999999999996</v>
       </c>
     </row>
@@ -6092,27 +5614,22 @@
         <v>1</v>
       </c>
       <c r="H98" s="1">
-        <f t="shared" si="2"/>
         <v>2.952</v>
       </c>
       <c r="I98" s="16">
         <v>5</v>
       </c>
       <c r="J98" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K98" s="9"/>
       <c r="L98" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M98" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.69376693766937669</v>
       </c>
       <c r="N98" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.048</v>
       </c>
     </row>
@@ -6136,27 +5653,22 @@
         <v>5</v>
       </c>
       <c r="H99" s="1">
-        <f t="shared" si="2"/>
         <v>0.49440000000000001</v>
       </c>
       <c r="I99" s="16">
         <v>1.5</v>
       </c>
       <c r="J99" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7.5</v>
       </c>
       <c r="K99" s="9"/>
       <c r="L99" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.5</v>
       </c>
       <c r="M99" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.0339805825242721</v>
       </c>
       <c r="N99" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0056</v>
       </c>
     </row>
@@ -6180,27 +5692,22 @@
         <v>1</v>
       </c>
       <c r="H100" s="1">
-        <f t="shared" ref="H100:H131" si="3">IFERROR(F100/G100*1.2,"")</f>
         <v>4.3079999999999998</v>
       </c>
       <c r="I100" s="16">
         <v>7</v>
       </c>
       <c r="J100" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K100" s="9"/>
       <c r="L100" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M100" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.62488393686165278</v>
       </c>
       <c r="N100" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.6920000000000002</v>
       </c>
     </row>
@@ -6224,27 +5731,22 @@
         <v>1</v>
       </c>
       <c r="H101" s="1">
-        <f t="shared" si="3"/>
         <v>2.4599999999999995</v>
       </c>
       <c r="I101" s="16">
         <v>4</v>
       </c>
       <c r="J101" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M101" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.62601626016260192</v>
       </c>
       <c r="N101" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5400000000000005</v>
       </c>
     </row>
@@ -6268,27 +5770,22 @@
         <v>6</v>
       </c>
       <c r="H102" s="1">
-        <f t="shared" si="3"/>
         <v>0.29599999999999999</v>
       </c>
       <c r="I102" s="16">
         <v>1</v>
       </c>
       <c r="J102" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M102" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3783783783783785</v>
       </c>
       <c r="N102" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70399999999999996</v>
       </c>
     </row>
@@ -6312,27 +5809,22 @@
         <v>1</v>
       </c>
       <c r="H103" s="1">
-        <f t="shared" si="3"/>
         <v>3.3239999999999998</v>
       </c>
       <c r="I103" s="16">
         <v>6</v>
       </c>
       <c r="J103" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K103" s="9"/>
       <c r="L103" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M103" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.80505415162454885</v>
       </c>
       <c r="N103" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.6760000000000002</v>
       </c>
     </row>
@@ -6356,27 +5848,22 @@
         <v>1</v>
       </c>
       <c r="H104" s="1">
-        <f t="shared" si="3"/>
         <v>0.84</v>
       </c>
       <c r="I104" s="16">
         <v>2</v>
       </c>
       <c r="J104" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2</v>
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
       <c r="M104" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3809523809523812</v>
       </c>
       <c r="N104" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1600000000000001</v>
       </c>
     </row>
@@ -6400,27 +5887,22 @@
         <v>1</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="3"/>
         <v>2.052</v>
       </c>
       <c r="I105" s="16">
         <v>3</v>
       </c>
       <c r="J105" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K105" s="9"/>
       <c r="L105" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M105" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.46198830409356723</v>
       </c>
       <c r="N105" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.94799999999999995</v>
       </c>
     </row>
@@ -6444,27 +5926,22 @@
         <v>1</v>
       </c>
       <c r="H106" s="1">
-        <f t="shared" si="3"/>
         <v>2.3879999999999999</v>
       </c>
       <c r="I106" s="16">
         <v>4</v>
       </c>
       <c r="J106" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K106" s="9"/>
       <c r="L106" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M106" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.67504187604690125</v>
       </c>
       <c r="N106" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6120000000000001</v>
       </c>
     </row>
@@ -6488,27 +5965,22 @@
         <v>1</v>
       </c>
       <c r="H107" s="1">
-        <f t="shared" si="3"/>
         <v>2.6039999999999996</v>
       </c>
       <c r="I107" s="16">
         <v>5</v>
       </c>
       <c r="J107" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K107" s="9"/>
       <c r="L107" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M107" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.92012288786482366</v>
       </c>
       <c r="N107" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3960000000000004</v>
       </c>
     </row>
@@ -6532,27 +6004,22 @@
         <v>1</v>
       </c>
       <c r="H108" s="1">
-        <f t="shared" si="3"/>
         <v>1.3559999999999999</v>
       </c>
       <c r="I108" s="16">
         <v>2.5</v>
       </c>
       <c r="J108" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2.5</v>
       </c>
       <c r="K108" s="9"/>
       <c r="L108" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.5</v>
       </c>
       <c r="M108" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.84365781710914467</v>
       </c>
       <c r="N108" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1440000000000001</v>
       </c>
     </row>
@@ -6576,27 +6043,22 @@
         <v>4</v>
       </c>
       <c r="H109" s="1">
-        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="I109" s="16">
         <v>1</v>
       </c>
       <c r="J109" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K109" s="9"/>
       <c r="L109" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M109" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0833333333333335</v>
       </c>
       <c r="N109" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.52</v>
       </c>
     </row>
@@ -6620,27 +6082,22 @@
         <v>1</v>
       </c>
       <c r="H110" s="1">
-        <f t="shared" si="3"/>
         <v>3.54</v>
       </c>
       <c r="I110" s="16">
         <v>5</v>
       </c>
       <c r="J110" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K110" s="9"/>
       <c r="L110" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M110" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.41242937853107342</v>
       </c>
       <c r="N110" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.46</v>
       </c>
     </row>
@@ -6664,27 +6121,22 @@
         <v>1</v>
       </c>
       <c r="H111" s="1">
-        <f t="shared" si="3"/>
         <v>7.5239999999999991</v>
       </c>
       <c r="I111" s="16">
         <v>12</v>
       </c>
       <c r="J111" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K111" s="9"/>
       <c r="L111" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M111" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.59489633173843715</v>
       </c>
       <c r="N111" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.4760000000000009</v>
       </c>
     </row>
@@ -6708,27 +6160,22 @@
         <v>1</v>
       </c>
       <c r="H112" s="1">
-        <f t="shared" si="3"/>
         <v>14.208</v>
       </c>
       <c r="I112" s="16">
         <v>15</v>
       </c>
       <c r="J112" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K112" s="9"/>
       <c r="L112" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
       <c r="M112" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.5743243243243229E-2</v>
       </c>
       <c r="N112" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.79199999999999982</v>
       </c>
     </row>
@@ -6752,27 +6199,22 @@
         <v>16</v>
       </c>
       <c r="H113" s="1">
-        <f t="shared" si="3"/>
         <v>0.15824999999999997</v>
       </c>
       <c r="I113" s="16">
         <v>0.4</v>
       </c>
       <c r="J113" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6.4</v>
       </c>
       <c r="K113" s="9"/>
       <c r="L113" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.4</v>
       </c>
       <c r="M113" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5276461295418646</v>
       </c>
       <c r="N113" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.24175000000000005</v>
       </c>
     </row>
@@ -6796,27 +6238,22 @@
         <v>6</v>
       </c>
       <c r="H114" s="1">
-        <f t="shared" si="3"/>
         <v>0.74199999999999988</v>
       </c>
       <c r="I114" s="16">
         <v>1.25</v>
       </c>
       <c r="J114" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7.5</v>
       </c>
       <c r="K114" s="9"/>
       <c r="L114" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.25</v>
       </c>
       <c r="M114" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.68463611859838303</v>
       </c>
       <c r="N114" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.50800000000000012</v>
       </c>
     </row>
@@ -6840,27 +6277,22 @@
         <v>2</v>
       </c>
       <c r="H115" s="1">
-        <f t="shared" si="3"/>
         <v>1.296</v>
       </c>
       <c r="I115" s="16">
         <v>1.5</v>
       </c>
       <c r="J115" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K115" s="9"/>
       <c r="L115" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.5</v>
       </c>
       <c r="M115" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.15740740740740738</v>
       </c>
       <c r="N115" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.20399999999999996</v>
       </c>
     </row>
@@ -6884,27 +6316,22 @@
         <v>24</v>
       </c>
       <c r="H116" s="1">
-        <f t="shared" si="3"/>
         <v>0.33099999999999996</v>
       </c>
       <c r="I116" s="16">
         <v>0.5</v>
       </c>
       <c r="J116" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K116" s="9"/>
       <c r="L116" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.5</v>
       </c>
       <c r="M116" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.51057401812688841</v>
       </c>
       <c r="N116" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.16900000000000004</v>
       </c>
     </row>
@@ -6928,27 +6355,22 @@
         <v>12</v>
       </c>
       <c r="H117" s="1">
-        <f t="shared" si="3"/>
         <v>0.33599999999999997</v>
       </c>
       <c r="I117" s="16">
         <v>1.25</v>
       </c>
       <c r="J117" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K117" s="9"/>
       <c r="L117" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.25</v>
       </c>
       <c r="M117" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.7202380952380958</v>
       </c>
       <c r="N117" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.91400000000000003</v>
       </c>
     </row>
@@ -6972,29 +6394,24 @@
         <v>1</v>
       </c>
       <c r="H118" s="1">
-        <f t="shared" si="3"/>
         <v>3.54</v>
       </c>
       <c r="I118" s="16">
         <v>3.5</v>
       </c>
       <c r="J118" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K118" s="9">
         <v>0.5</v>
       </c>
       <c r="L118" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M118" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>-1.1299435028248598E-2</v>
       </c>
       <c r="N118" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>-4.0000000000000036E-2</v>
       </c>
     </row>
@@ -7018,29 +6435,24 @@
         <v>7</v>
       </c>
       <c r="H119" s="1">
-        <f t="shared" si="3"/>
         <v>1.3405714285714285</v>
       </c>
       <c r="I119" s="16">
         <v>2</v>
       </c>
       <c r="J119" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>14</v>
       </c>
       <c r="K119" s="9">
         <v>0.5</v>
       </c>
       <c r="L119" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.5</v>
       </c>
       <c r="M119" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.49190110826939476</v>
       </c>
       <c r="N119" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.65942857142857148</v>
       </c>
     </row>
@@ -7064,27 +6476,22 @@
         <v>10</v>
       </c>
       <c r="H120" s="1">
-        <f t="shared" si="3"/>
         <v>0.51479999999999992</v>
       </c>
       <c r="I120" s="16">
         <v>0.8</v>
       </c>
       <c r="J120" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K120" s="9"/>
       <c r="L120" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.8</v>
       </c>
       <c r="M120" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.55400155400155426</v>
       </c>
       <c r="N120" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.28520000000000012</v>
       </c>
     </row>
@@ -7108,27 +6515,22 @@
         <v>12</v>
       </c>
       <c r="H121" s="1">
-        <f t="shared" si="3"/>
         <v>0.45199999999999996</v>
       </c>
       <c r="I121" s="16">
         <v>1</v>
       </c>
       <c r="J121" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K121" s="9"/>
       <c r="L121" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M121" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2123893805309736</v>
       </c>
       <c r="N121" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.54800000000000004</v>
       </c>
     </row>
@@ -7152,27 +6554,22 @@
         <v>12</v>
       </c>
       <c r="H122" s="1">
-        <f t="shared" si="3"/>
         <v>0.247</v>
       </c>
       <c r="I122" s="16">
         <v>0.5</v>
       </c>
       <c r="J122" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.5</v>
       </c>
       <c r="M122" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0242914979757085</v>
       </c>
       <c r="N122" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.253</v>
       </c>
     </row>
@@ -7196,27 +6593,22 @@
         <v>1</v>
       </c>
       <c r="H123" s="1">
-        <f t="shared" si="3"/>
         <v>5.6040000000000001</v>
       </c>
       <c r="I123" s="16">
         <v>10</v>
       </c>
       <c r="J123" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M123" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.78443968593861524</v>
       </c>
       <c r="N123" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.3959999999999999</v>
       </c>
     </row>
@@ -7240,27 +6632,22 @@
         <v>1</v>
       </c>
       <c r="H124" s="1">
-        <f t="shared" si="3"/>
         <v>9.6959999999999997</v>
       </c>
       <c r="I124" s="16">
         <v>14</v>
       </c>
       <c r="J124" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>14</v>
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>14</v>
       </c>
       <c r="M124" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.44389438943894394</v>
       </c>
       <c r="N124" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.3040000000000003</v>
       </c>
     </row>
@@ -7284,27 +6671,22 @@
         <v>1</v>
       </c>
       <c r="H125" s="1">
-        <f t="shared" si="3"/>
         <v>7.38</v>
       </c>
       <c r="I125" s="16">
         <v>11</v>
       </c>
       <c r="J125" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>11</v>
       </c>
       <c r="K125" s="9"/>
       <c r="L125" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>11</v>
       </c>
       <c r="M125" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.49051490514905149</v>
       </c>
       <c r="N125" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.62</v>
       </c>
     </row>
@@ -7328,27 +6710,22 @@
         <v>1</v>
       </c>
       <c r="H126" s="1">
-        <f t="shared" si="3"/>
         <v>2.988</v>
       </c>
       <c r="I126" s="16">
         <v>5.5</v>
       </c>
       <c r="J126" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5.5</v>
       </c>
       <c r="K126" s="9"/>
       <c r="L126" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5.5</v>
       </c>
       <c r="M126" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.84069611780455156</v>
       </c>
       <c r="N126" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.512</v>
       </c>
     </row>
@@ -7372,27 +6749,22 @@
         <v>1</v>
       </c>
       <c r="H127" s="1">
-        <f t="shared" si="3"/>
         <v>3.48</v>
       </c>
       <c r="I127" s="16">
         <v>5</v>
       </c>
       <c r="J127" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K127" s="9"/>
       <c r="L127" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M127" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.43678160919540232</v>
       </c>
       <c r="N127" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.52</v>
       </c>
     </row>
@@ -7416,27 +6788,22 @@
         <v>1</v>
       </c>
       <c r="H128" s="1">
-        <f t="shared" si="3"/>
         <v>1.4039999999999999</v>
       </c>
       <c r="I128" s="16">
         <v>3.5</v>
       </c>
       <c r="J128" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K128" s="9"/>
       <c r="L128" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M128" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.4928774928774931</v>
       </c>
       <c r="N128" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.0960000000000001</v>
       </c>
     </row>
@@ -7460,27 +6827,22 @@
         <v>1</v>
       </c>
       <c r="H129" s="1">
-        <f t="shared" si="3"/>
         <v>1.236</v>
       </c>
       <c r="I129" s="16">
         <v>3.5</v>
       </c>
       <c r="J129" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K129" s="9"/>
       <c r="L129" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M129" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8317152103559873</v>
       </c>
       <c r="N129" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.2640000000000002</v>
       </c>
     </row>
@@ -7504,27 +6866,22 @@
         <v>1</v>
       </c>
       <c r="H130" s="1">
-        <f t="shared" si="3"/>
         <v>2.8079999999999998</v>
       </c>
       <c r="I130" s="16">
         <v>6</v>
       </c>
       <c r="J130" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K130" s="9"/>
       <c r="L130" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M130" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1367521367521369</v>
       </c>
       <c r="N130" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.1920000000000002</v>
       </c>
     </row>
@@ -7548,27 +6905,22 @@
         <v>1</v>
       </c>
       <c r="H131" s="1">
-        <f t="shared" si="3"/>
         <v>5.76</v>
       </c>
       <c r="I131" s="16">
         <v>11</v>
       </c>
       <c r="J131" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>11</v>
       </c>
       <c r="K131" s="9"/>
       <c r="L131" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>11</v>
       </c>
       <c r="M131" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.90972222222222232</v>
       </c>
       <c r="N131" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.24</v>
       </c>
     </row>
@@ -7592,27 +6944,22 @@
         <v>1</v>
       </c>
       <c r="H132" s="1">
-        <f t="shared" ref="H132:H163" si="4">IFERROR(F132/G132*1.2,"")</f>
         <v>2.6759999999999997</v>
       </c>
       <c r="I132" s="16">
         <v>7</v>
       </c>
       <c r="J132" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K132" s="9"/>
       <c r="L132" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M132" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6158445440956652</v>
       </c>
       <c r="N132" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.3239999999999998</v>
       </c>
     </row>
@@ -7636,27 +6983,22 @@
         <v>1</v>
       </c>
       <c r="H133" s="1">
-        <f t="shared" si="4"/>
         <v>2.4839999999999995</v>
       </c>
       <c r="I133" s="16">
         <v>6</v>
       </c>
       <c r="J133" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K133" s="9"/>
       <c r="L133" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M133" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.4154589371980681</v>
       </c>
       <c r="N133" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.5160000000000005</v>
       </c>
     </row>
@@ -7680,27 +7022,22 @@
         <v>1</v>
       </c>
       <c r="H134" s="1">
-        <f t="shared" si="4"/>
         <v>8.0879999999999992</v>
       </c>
       <c r="I134" s="16">
         <v>13</v>
       </c>
       <c r="J134" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>13</v>
       </c>
       <c r="K134" s="9"/>
       <c r="L134" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>13</v>
       </c>
       <c r="M134" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.60731948565776472</v>
       </c>
       <c r="N134" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.9120000000000008</v>
       </c>
     </row>
@@ -7724,27 +7061,22 @@
         <v>1</v>
       </c>
       <c r="H135" s="1">
-        <f t="shared" si="4"/>
         <v>3.3839999999999999</v>
       </c>
       <c r="I135" s="16">
         <v>7</v>
       </c>
       <c r="J135" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K135" s="9"/>
       <c r="L135" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M135" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0685579196217494</v>
       </c>
       <c r="N135" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.6160000000000001</v>
       </c>
     </row>
@@ -7768,27 +7100,22 @@
         <v>1</v>
       </c>
       <c r="H136" s="1">
-        <f t="shared" si="4"/>
         <v>7.3559999999999999</v>
       </c>
       <c r="I136" s="16">
         <v>12</v>
       </c>
       <c r="J136" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K136" s="9"/>
       <c r="L136" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M136" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.63132137030995106</v>
       </c>
       <c r="N136" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.6440000000000001</v>
       </c>
     </row>
@@ -7812,27 +7139,22 @@
         <v>1</v>
       </c>
       <c r="H137" s="1">
-        <f t="shared" si="4"/>
         <v>2.0880000000000001</v>
       </c>
       <c r="I137" s="16">
         <v>5</v>
       </c>
       <c r="J137" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K137" s="9"/>
       <c r="L137" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M137" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3946360153256705</v>
       </c>
       <c r="N137" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.9119999999999999</v>
       </c>
     </row>
@@ -7856,27 +7178,22 @@
         <v>1</v>
       </c>
       <c r="H138" s="1">
-        <f t="shared" si="4"/>
         <v>4.944</v>
       </c>
       <c r="I138" s="16">
         <v>8</v>
       </c>
       <c r="J138" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K138" s="9"/>
       <c r="L138" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M138" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.6181229773462783</v>
       </c>
       <c r="N138" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.056</v>
       </c>
     </row>
@@ -7900,27 +7217,22 @@
         <v>1</v>
       </c>
       <c r="H139" s="1">
-        <f t="shared" si="4"/>
         <v>7.452</v>
       </c>
       <c r="I139" s="16">
         <v>12</v>
       </c>
       <c r="J139" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K139" s="9"/>
       <c r="L139" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M139" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.61030595813204513</v>
       </c>
       <c r="N139" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.548</v>
       </c>
     </row>
@@ -7944,29 +7256,24 @@
         <v>1</v>
       </c>
       <c r="H140" s="1">
-        <f t="shared" si="4"/>
         <v>2.1960000000000002</v>
       </c>
       <c r="I140" s="16">
         <v>3.5</v>
       </c>
       <c r="J140" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K140" s="9">
         <v>0.5</v>
       </c>
       <c r="L140" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M140" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.59380692167577398</v>
       </c>
       <c r="N140" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3039999999999998</v>
       </c>
     </row>
@@ -7990,29 +7297,24 @@
         <v>1</v>
       </c>
       <c r="H141" s="1">
-        <f t="shared" si="4"/>
         <v>1.8359999999999999</v>
       </c>
       <c r="I141" s="16">
         <v>3</v>
       </c>
       <c r="J141" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K141" s="9">
         <v>0.5</v>
       </c>
       <c r="L141" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M141" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.63398692810457524</v>
       </c>
       <c r="N141" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1640000000000001</v>
       </c>
     </row>
@@ -8036,29 +7338,24 @@
         <v>1</v>
       </c>
       <c r="H142" s="1">
-        <f t="shared" si="4"/>
         <v>2.1480000000000001</v>
       </c>
       <c r="I142" s="16">
         <v>3.5</v>
       </c>
       <c r="J142" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K142" s="9">
         <v>0.5</v>
       </c>
       <c r="L142" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M142" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.62942271880819356</v>
       </c>
       <c r="N142" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3519999999999999</v>
       </c>
     </row>
@@ -8082,29 +7379,24 @@
         <v>1</v>
       </c>
       <c r="H143" s="1">
-        <f t="shared" si="4"/>
         <v>2.052</v>
       </c>
       <c r="I143" s="16">
         <v>4.5</v>
       </c>
       <c r="J143" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4.5</v>
       </c>
       <c r="K143" s="9">
         <v>0.5</v>
       </c>
       <c r="L143" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M143" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1929824561403508</v>
       </c>
       <c r="N143" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.448</v>
       </c>
     </row>
@@ -8128,29 +7420,24 @@
         <v>5</v>
       </c>
       <c r="H144" s="1">
-        <f t="shared" si="4"/>
         <v>1.2072000000000001</v>
       </c>
       <c r="I144" s="16">
         <v>2.5</v>
       </c>
       <c r="J144" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12.5</v>
       </c>
       <c r="K144" s="9">
         <v>0.25</v>
       </c>
       <c r="L144" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.75</v>
       </c>
       <c r="M144" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0709078860172299</v>
       </c>
       <c r="N144" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2927999999999999</v>
       </c>
     </row>
@@ -8174,29 +7461,24 @@
         <v>5</v>
       </c>
       <c r="H145" s="1">
-        <f t="shared" si="4"/>
         <v>0.77280000000000004</v>
       </c>
       <c r="I145" s="16">
         <v>2.5</v>
       </c>
       <c r="J145" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12.5</v>
       </c>
       <c r="K145" s="9">
         <v>0.25</v>
       </c>
       <c r="L145" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.75</v>
       </c>
       <c r="M145" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.2349896480331259</v>
       </c>
       <c r="N145" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.7271999999999998</v>
       </c>
     </row>
@@ -8220,27 +7502,22 @@
         <v>1</v>
       </c>
       <c r="H146" s="1">
-        <f t="shared" si="4"/>
         <v>1.38</v>
       </c>
       <c r="I146" s="16">
         <v>3.5</v>
       </c>
       <c r="J146" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K146" s="9"/>
       <c r="L146" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M146" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5362318840579712</v>
       </c>
       <c r="N146" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.12</v>
       </c>
     </row>
@@ -8264,27 +7541,22 @@
         <v>1</v>
       </c>
       <c r="H147" s="1">
-        <f t="shared" si="4"/>
         <v>4.0439999999999996</v>
       </c>
       <c r="I147" s="16">
         <v>7</v>
       </c>
       <c r="J147" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K147" s="9"/>
       <c r="L147" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M147" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.73095944609297747</v>
       </c>
       <c r="N147" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.9560000000000004</v>
       </c>
     </row>
@@ -8308,29 +7580,24 @@
         <v>1</v>
       </c>
       <c r="H148" s="1">
-        <f t="shared" si="4"/>
         <v>0.82799999999999996</v>
       </c>
       <c r="I148" s="16">
         <v>3</v>
       </c>
       <c r="J148" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K148" s="9">
         <v>0.25</v>
       </c>
       <c r="L148" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.25</v>
       </c>
       <c r="M148" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.6231884057971016</v>
       </c>
       <c r="N148" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.1720000000000002</v>
       </c>
     </row>
@@ -8354,29 +7621,24 @@
         <v>1</v>
       </c>
       <c r="H149" s="1">
-        <f t="shared" si="4"/>
         <v>1.764</v>
       </c>
       <c r="I149" s="16">
         <v>3</v>
       </c>
       <c r="J149" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K149" s="9">
         <v>0.5</v>
       </c>
       <c r="L149" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M149" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70068027210884354</v>
       </c>
       <c r="N149" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.236</v>
       </c>
     </row>
@@ -8400,29 +7662,24 @@
         <v>1</v>
       </c>
       <c r="H150" s="1">
-        <f t="shared" si="4"/>
         <v>3.24</v>
       </c>
       <c r="I150" s="16">
         <v>4.5</v>
       </c>
       <c r="J150" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4.5</v>
       </c>
       <c r="K150" s="9">
         <v>0.5</v>
       </c>
       <c r="L150" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M150" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.38888888888888878</v>
       </c>
       <c r="N150" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2599999999999998</v>
       </c>
     </row>
@@ -8446,27 +7703,22 @@
         <v>1</v>
       </c>
       <c r="H151" s="1">
-        <f t="shared" si="4"/>
         <v>3.456</v>
       </c>
       <c r="I151" s="16">
         <v>6</v>
       </c>
       <c r="J151" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K151" s="9"/>
       <c r="L151" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M151" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.73611111111111116</v>
       </c>
       <c r="N151" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.544</v>
       </c>
     </row>
@@ -8490,27 +7742,22 @@
         <v>1</v>
       </c>
       <c r="H152" s="1">
-        <f t="shared" si="4"/>
         <v>3.4319999999999999</v>
       </c>
       <c r="I152" s="16">
         <v>6.5</v>
       </c>
       <c r="J152" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6.5</v>
       </c>
       <c r="K152" s="9"/>
       <c r="L152" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6.5</v>
       </c>
       <c r="M152" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.89393939393939392</v>
       </c>
       <c r="N152" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.0680000000000001</v>
       </c>
     </row>
@@ -8534,27 +7781,22 @@
         <v>6</v>
       </c>
       <c r="H153" s="1">
-        <f t="shared" si="4"/>
         <v>0.31</v>
       </c>
       <c r="I153" s="16">
         <v>1</v>
       </c>
       <c r="J153" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K153" s="9"/>
       <c r="L153" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M153" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.225806451612903</v>
       </c>
       <c r="N153" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.69</v>
       </c>
     </row>
@@ -8578,27 +7820,22 @@
         <v>1</v>
       </c>
       <c r="H154" s="1">
-        <f t="shared" si="4"/>
         <v>3.1559999999999997</v>
       </c>
       <c r="I154" s="16">
         <v>6</v>
       </c>
       <c r="J154" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K154" s="9"/>
       <c r="L154" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M154" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.90114068441064654</v>
       </c>
       <c r="N154" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.8440000000000003</v>
       </c>
     </row>
@@ -8622,27 +7859,22 @@
         <v>1</v>
       </c>
       <c r="H155" s="1">
-        <f t="shared" si="4"/>
         <v>3.48</v>
       </c>
       <c r="I155" s="16">
         <v>5.5</v>
       </c>
       <c r="J155" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5.5</v>
       </c>
       <c r="K155" s="9"/>
       <c r="L155" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5.5</v>
       </c>
       <c r="M155" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.58045977011494254</v>
       </c>
       <c r="N155" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.02</v>
       </c>
     </row>
@@ -8666,27 +7898,22 @@
         <v>1</v>
       </c>
       <c r="H156" s="1">
-        <f t="shared" si="4"/>
         <v>7.0919999999999996</v>
       </c>
       <c r="I156" s="16">
         <v>12</v>
       </c>
       <c r="J156" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K156" s="9"/>
       <c r="L156" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M156" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.69204737732656518</v>
       </c>
       <c r="N156" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.9080000000000004</v>
       </c>
     </row>
@@ -8710,27 +7937,22 @@
         <v>1</v>
       </c>
       <c r="H157" s="1">
-        <f t="shared" si="4"/>
         <v>3.3119999999999998</v>
       </c>
       <c r="I157" s="16">
         <v>7</v>
       </c>
       <c r="J157" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K157" s="9"/>
       <c r="L157" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M157" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1135265700483092</v>
       </c>
       <c r="N157" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.6880000000000002</v>
       </c>
     </row>
@@ -8754,27 +7976,22 @@
         <v>1</v>
       </c>
       <c r="H158" s="1">
-        <f t="shared" si="4"/>
         <v>3.9</v>
       </c>
       <c r="I158" s="16">
         <v>7</v>
       </c>
       <c r="J158" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K158" s="9"/>
       <c r="L158" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M158" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.79487179487179493</v>
       </c>
       <c r="N158" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.1</v>
       </c>
     </row>
@@ -8798,27 +8015,22 @@
         <v>1</v>
       </c>
       <c r="H159" s="1">
-        <f t="shared" si="4"/>
         <v>2.3759999999999999</v>
       </c>
       <c r="I159" s="16">
         <v>6</v>
       </c>
       <c r="J159" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K159" s="9"/>
       <c r="L159" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M159" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5252525252525253</v>
       </c>
       <c r="N159" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.6240000000000001</v>
       </c>
     </row>
@@ -8842,27 +8054,22 @@
         <v>1</v>
       </c>
       <c r="H160" s="1">
-        <f t="shared" si="4"/>
         <v>2.5680000000000001</v>
       </c>
       <c r="I160" s="16">
         <v>6</v>
       </c>
       <c r="J160" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K160" s="9"/>
       <c r="L160" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M160" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3364485981308412</v>
       </c>
       <c r="N160" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.4319999999999999</v>
       </c>
     </row>
@@ -8886,27 +8093,22 @@
         <v>1</v>
       </c>
       <c r="H161" s="1">
-        <f t="shared" si="4"/>
         <v>1.3919999999999999</v>
       </c>
       <c r="I161" s="16">
         <v>3.5</v>
       </c>
       <c r="J161" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K161" s="9"/>
       <c r="L161" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M161" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5143678160919543</v>
       </c>
       <c r="N161" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.1080000000000001</v>
       </c>
     </row>
@@ -8930,27 +8132,22 @@
         <v>1</v>
       </c>
       <c r="H162" s="1">
-        <f t="shared" si="4"/>
         <v>2.8079999999999998</v>
       </c>
       <c r="I162" s="16">
         <v>7</v>
       </c>
       <c r="J162" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K162" s="9"/>
       <c r="L162" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M162" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.4928774928774931</v>
       </c>
       <c r="N162" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.1920000000000002</v>
       </c>
     </row>
@@ -8974,27 +8171,22 @@
         <v>1</v>
       </c>
       <c r="H163" s="1">
-        <f t="shared" si="4"/>
         <v>3.6359999999999997</v>
       </c>
       <c r="I163" s="16">
         <v>8</v>
       </c>
       <c r="J163" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K163" s="9"/>
       <c r="L163" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M163" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2002200220022006</v>
       </c>
       <c r="N163" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.3640000000000008</v>
       </c>
     </row>
@@ -9018,27 +8210,22 @@
         <v>1</v>
       </c>
       <c r="H164" s="1">
-        <f t="shared" ref="H164:H187" si="5">IFERROR(F164/G164*1.2,"")</f>
         <v>1.1519999999999999</v>
       </c>
       <c r="I164" s="16">
         <v>3</v>
       </c>
       <c r="J164" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K164" s="9"/>
       <c r="L164" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M164" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.604166666666667</v>
       </c>
       <c r="N164" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8480000000000001</v>
       </c>
     </row>
@@ -9062,27 +8249,22 @@
         <v>1</v>
       </c>
       <c r="H165" s="1">
-        <f t="shared" si="5"/>
         <v>1.0680000000000001</v>
       </c>
       <c r="I165" s="16">
         <v>3</v>
       </c>
       <c r="J165" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K165" s="9"/>
       <c r="L165" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M165" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8089887640449436</v>
       </c>
       <c r="N165" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.9319999999999999</v>
       </c>
     </row>
@@ -9106,27 +8288,22 @@
         <v>1</v>
       </c>
       <c r="H166" s="1">
-        <f t="shared" si="5"/>
         <v>5.6280000000000001</v>
       </c>
       <c r="I166" s="16">
         <v>10</v>
       </c>
       <c r="J166" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K166" s="9"/>
       <c r="L166" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M166" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.77683013503909026</v>
       </c>
       <c r="N166" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.3719999999999999</v>
       </c>
     </row>
@@ -9150,29 +8327,24 @@
         <v>1</v>
       </c>
       <c r="H167" s="1">
-        <f t="shared" si="5"/>
         <v>1.8959999999999999</v>
       </c>
       <c r="I167" s="16">
         <v>4</v>
       </c>
       <c r="J167" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K167" s="9">
         <v>0.25</v>
       </c>
       <c r="L167" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4.25</v>
       </c>
       <c r="M167" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.109704641350211</v>
       </c>
       <c r="N167" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.1040000000000001</v>
       </c>
     </row>
@@ -9196,27 +8368,22 @@
         <v>1</v>
       </c>
       <c r="H168" s="1">
-        <f t="shared" si="5"/>
         <v>5.6159999999999997</v>
       </c>
       <c r="I168" s="16">
         <v>8</v>
       </c>
       <c r="J168" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K168" s="9"/>
       <c r="L168" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M168" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.42450142450142458</v>
       </c>
       <c r="N168" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3840000000000003</v>
       </c>
     </row>
@@ -9240,27 +8407,22 @@
         <v>1</v>
       </c>
       <c r="H169" s="1">
-        <f t="shared" si="5"/>
         <v>7.8959999999999999</v>
       </c>
       <c r="I169" s="16">
         <v>11</v>
       </c>
       <c r="J169" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>11</v>
       </c>
       <c r="K169" s="9"/>
       <c r="L169" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>11</v>
       </c>
       <c r="M169" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.39311043566362719</v>
       </c>
       <c r="N169" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.1040000000000001</v>
       </c>
     </row>
@@ -9284,27 +8446,22 @@
         <v>1</v>
       </c>
       <c r="H170" s="1">
-        <f t="shared" si="5"/>
         <v>10.607999999999999</v>
       </c>
       <c r="I170" s="16">
         <v>14</v>
       </c>
       <c r="J170" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>14</v>
       </c>
       <c r="K170" s="9"/>
       <c r="L170" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>14</v>
       </c>
       <c r="M170" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.31975867269984931</v>
       </c>
       <c r="N170" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.3920000000000012</v>
       </c>
     </row>
@@ -9328,27 +8485,22 @@
         <v>1</v>
       </c>
       <c r="H171" s="1">
-        <f t="shared" si="5"/>
         <v>9.1920000000000002</v>
       </c>
       <c r="I171" s="16">
         <v>12</v>
       </c>
       <c r="J171" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K171" s="9"/>
       <c r="L171" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M171" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.3054830287206266</v>
       </c>
       <c r="N171" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.8079999999999998</v>
       </c>
     </row>
@@ -9372,27 +8524,22 @@
         <v>1</v>
       </c>
       <c r="H172" s="1">
-        <f t="shared" si="5"/>
         <v>8.52</v>
       </c>
       <c r="I172" s="16">
         <v>12</v>
       </c>
       <c r="J172" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K172" s="9"/>
       <c r="L172" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M172" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.40845070422535218</v>
       </c>
       <c r="N172" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.4800000000000004</v>
       </c>
     </row>
@@ -9416,27 +8563,22 @@
         <v>1</v>
       </c>
       <c r="H173" s="1">
-        <f t="shared" si="5"/>
         <v>27.12</v>
       </c>
       <c r="I173" s="16">
         <v>14</v>
       </c>
       <c r="J173" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>14</v>
       </c>
       <c r="K173" s="9"/>
       <c r="L173" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>14</v>
       </c>
       <c r="M173" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>-0.48377581120943952</v>
       </c>
       <c r="N173" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>-13.120000000000001</v>
       </c>
     </row>
@@ -9460,27 +8602,22 @@
         <v>36</v>
       </c>
       <c r="H174" s="1">
-        <f t="shared" si="5"/>
         <v>0.32199999999999995</v>
       </c>
       <c r="I174" s="16">
         <v>0.6</v>
       </c>
       <c r="J174" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>21.599999999999998</v>
       </c>
       <c r="K174" s="9"/>
       <c r="L174" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.6</v>
       </c>
       <c r="M174" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.86335403726708093</v>
       </c>
       <c r="N174" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.27800000000000002</v>
       </c>
     </row>
@@ -9504,27 +8641,22 @@
         <v>3</v>
       </c>
       <c r="H175" s="1">
-        <f t="shared" si="5"/>
         <v>0.53200000000000003</v>
       </c>
       <c r="I175" s="16">
         <v>1</v>
       </c>
       <c r="J175" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K175" s="9"/>
       <c r="L175" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M175" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.87969924812030065</v>
       </c>
       <c r="N175" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.46799999999999997</v>
       </c>
     </row>
@@ -9548,27 +8680,22 @@
         <v>1</v>
       </c>
       <c r="H176" s="1">
-        <f t="shared" si="5"/>
         <v>3.2160000000000002</v>
       </c>
       <c r="I176" s="16">
         <v>5</v>
       </c>
       <c r="J176" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K176" s="9"/>
       <c r="L176" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M176" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.55472636815920384</v>
       </c>
       <c r="N176" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.7839999999999998</v>
       </c>
     </row>
@@ -9592,27 +8719,22 @@
         <v>1</v>
       </c>
       <c r="H177" s="1">
-        <f t="shared" si="5"/>
         <v>6.24</v>
       </c>
       <c r="I177" s="16">
         <v>10</v>
       </c>
       <c r="J177" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K177" s="9"/>
       <c r="L177" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M177" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.60256410256410253</v>
       </c>
       <c r="N177" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.76</v>
       </c>
     </row>
@@ -9636,27 +8758,22 @@
         <v>1</v>
       </c>
       <c r="H178" s="1">
-        <f t="shared" si="5"/>
         <v>3.1799999999999997</v>
       </c>
       <c r="I178" s="16">
         <v>6</v>
       </c>
       <c r="J178" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K178" s="9"/>
       <c r="L178" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M178" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.88679245283018882</v>
       </c>
       <c r="N178" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.8200000000000003</v>
       </c>
     </row>
@@ -9680,27 +8797,22 @@
         <v>1</v>
       </c>
       <c r="H179" s="1">
-        <f t="shared" si="5"/>
         <v>2.1360000000000001</v>
       </c>
       <c r="I179" s="16">
         <v>5</v>
       </c>
       <c r="J179" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K179" s="9"/>
       <c r="L179" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M179" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3408239700374531</v>
       </c>
       <c r="N179" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.8639999999999999</v>
       </c>
     </row>
@@ -9724,29 +8836,24 @@
         <v>1</v>
       </c>
       <c r="H180" s="1">
-        <f t="shared" si="5"/>
         <v>1.3320000000000001</v>
       </c>
       <c r="I180" s="16">
         <v>3</v>
       </c>
       <c r="J180" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K180" s="9">
         <v>0.5</v>
       </c>
       <c r="L180" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M180" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2522522522522521</v>
       </c>
       <c r="N180" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6679999999999999</v>
       </c>
     </row>
@@ -9770,29 +8877,24 @@
         <v>1</v>
       </c>
       <c r="H181" s="1">
-        <f t="shared" si="5"/>
         <v>1.62</v>
       </c>
       <c r="I181" s="16">
         <v>3</v>
       </c>
       <c r="J181" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K181" s="9">
         <v>0.5</v>
       </c>
       <c r="L181" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M181" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.85185185185185175</v>
       </c>
       <c r="N181" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.38</v>
       </c>
     </row>
@@ -9816,29 +8918,24 @@
         <v>1</v>
       </c>
       <c r="H182" s="1">
-        <f t="shared" si="5"/>
         <v>1.4159999999999999</v>
       </c>
       <c r="I182" s="16">
         <v>3</v>
       </c>
       <c r="J182" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K182" s="9">
         <v>0.5</v>
       </c>
       <c r="L182" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M182" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1186440677966103</v>
       </c>
       <c r="N182" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5840000000000001</v>
       </c>
     </row>
@@ -9862,27 +8959,22 @@
         <v>1</v>
       </c>
       <c r="H183" s="1">
-        <f t="shared" si="5"/>
         <v>1.464</v>
       </c>
       <c r="I183" s="16">
         <v>2.5</v>
       </c>
       <c r="J183" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>2.5</v>
       </c>
       <c r="K183" s="9"/>
       <c r="L183" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2.5</v>
       </c>
       <c r="M183" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70765027322404372</v>
       </c>
       <c r="N183" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.036</v>
       </c>
     </row>
@@ -9906,29 +8998,24 @@
         <v>1</v>
       </c>
       <c r="H184" s="1">
-        <f t="shared" si="5"/>
         <v>1.5720000000000001</v>
       </c>
       <c r="I184" s="16">
         <v>3</v>
       </c>
       <c r="J184" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K184" s="9">
         <v>0.5</v>
       </c>
       <c r="L184" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M184" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.90839694656488545</v>
       </c>
       <c r="N184" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.4279999999999999</v>
       </c>
     </row>
@@ -9952,29 +9039,24 @@
         <v>20</v>
       </c>
       <c r="H185" s="1">
-        <f t="shared" si="5"/>
         <v>0.38219999999999998</v>
       </c>
       <c r="I185" s="16">
         <v>1</v>
       </c>
       <c r="J185" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>20</v>
       </c>
       <c r="K185" s="9">
         <v>0.5</v>
       </c>
       <c r="L185" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.5</v>
       </c>
       <c r="M185" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6164311878597595</v>
       </c>
       <c r="N185" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.61780000000000002</v>
       </c>
     </row>
@@ -9998,29 +9080,24 @@
         <v>1</v>
       </c>
       <c r="H186" s="1">
-        <f t="shared" si="5"/>
         <v>1.9919999999999998</v>
       </c>
       <c r="I186" s="16">
         <v>3.25</v>
       </c>
       <c r="J186" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.25</v>
       </c>
       <c r="K186" s="9">
         <v>0</v>
       </c>
       <c r="L186" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.25</v>
       </c>
       <c r="M186" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.63152610441767087</v>
       </c>
       <c r="N186" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2580000000000002</v>
       </c>
     </row>
@@ -10044,27 +9121,22 @@
         <v>1</v>
       </c>
       <c r="H187" s="1">
-        <f t="shared" si="5"/>
         <v>3.3479999999999999</v>
       </c>
       <c r="I187" s="16">
         <v>6</v>
       </c>
       <c r="J187" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K187" s="9"/>
       <c r="L187" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M187" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.79211469534050183</v>
       </c>
       <c r="N187" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.6520000000000001</v>
       </c>
     </row>
@@ -10088,27 +9160,22 @@
         <v>1</v>
       </c>
       <c r="H188" s="1">
-        <f t="shared" ref="H188:H207" si="6">IFERROR(F188/G188*1.2,"")</f>
         <v>1.02</v>
       </c>
       <c r="I188" s="16">
         <v>3</v>
       </c>
       <c r="J188" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K188" s="9"/>
       <c r="L188" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M188" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.9411764705882353</v>
       </c>
       <c r="N188" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.98</v>
       </c>
     </row>
@@ -10132,27 +9199,22 @@
         <v>1</v>
       </c>
       <c r="H189" s="1">
-        <f t="shared" si="6"/>
         <v>4.9559999999999995</v>
       </c>
       <c r="I189" s="16">
         <v>10</v>
       </c>
       <c r="J189" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K189" s="9"/>
       <c r="L189" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M189" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0177562550443908</v>
       </c>
       <c r="N189" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.0440000000000005</v>
       </c>
     </row>
@@ -10176,27 +9238,22 @@
         <v>1</v>
       </c>
       <c r="H190" s="1">
-        <f t="shared" si="6"/>
         <v>4.476</v>
       </c>
       <c r="I190" s="16">
         <v>9</v>
       </c>
       <c r="J190" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>9</v>
       </c>
       <c r="K190" s="9"/>
       <c r="L190" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>9</v>
       </c>
       <c r="M190" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0107238605898123</v>
       </c>
       <c r="N190" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.524</v>
       </c>
     </row>
@@ -10220,27 +9277,22 @@
         <v>1</v>
       </c>
       <c r="H191" s="1">
-        <f t="shared" si="6"/>
         <v>3.9839999999999995</v>
       </c>
       <c r="I191" s="16">
         <v>7</v>
       </c>
       <c r="J191" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K191" s="9"/>
       <c r="L191" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M191" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.7570281124497994</v>
       </c>
       <c r="N191" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.0160000000000005</v>
       </c>
     </row>
@@ -10264,27 +9316,22 @@
         <v>1</v>
       </c>
       <c r="H192" s="1">
-        <f t="shared" si="6"/>
         <v>2.6519999999999997</v>
       </c>
       <c r="I192" s="16">
         <v>5</v>
       </c>
       <c r="J192" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K192" s="9"/>
       <c r="L192" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M192" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.88536953242835614</v>
       </c>
       <c r="N192" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3480000000000003</v>
       </c>
     </row>
@@ -10308,27 +9355,22 @@
         <v>1</v>
       </c>
       <c r="H193" s="1">
-        <f t="shared" si="6"/>
         <v>1.752</v>
       </c>
       <c r="I193" s="16">
         <v>3.5</v>
       </c>
       <c r="J193" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K193" s="9"/>
       <c r="L193" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M193" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.99771689497716898</v>
       </c>
       <c r="N193" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.748</v>
       </c>
     </row>
@@ -10352,27 +9394,22 @@
         <v>1</v>
       </c>
       <c r="H194" s="1">
-        <f t="shared" si="6"/>
         <v>8.8559999999999999</v>
       </c>
       <c r="I194" s="16">
         <v>15</v>
       </c>
       <c r="J194" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K194" s="9"/>
       <c r="L194" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
       <c r="M194" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.69376693766937669</v>
       </c>
       <c r="N194" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>6.1440000000000001</v>
       </c>
     </row>
@@ -10396,27 +9433,22 @@
         <v>1</v>
       </c>
       <c r="H195" s="1">
-        <f t="shared" si="6"/>
         <v>3.048</v>
       </c>
       <c r="I195" s="16">
         <v>9</v>
       </c>
       <c r="J195" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>9</v>
       </c>
       <c r="K195" s="9"/>
       <c r="L195" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>9</v>
       </c>
       <c r="M195" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.9527559055118109</v>
       </c>
       <c r="N195" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.952</v>
       </c>
     </row>
@@ -10440,27 +9472,22 @@
         <v>1</v>
       </c>
       <c r="H196" s="1">
-        <f t="shared" si="6"/>
         <v>5.8559999999999999</v>
       </c>
       <c r="I196" s="16">
         <v>11</v>
       </c>
       <c r="J196" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>11</v>
       </c>
       <c r="K196" s="9"/>
       <c r="L196" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>11</v>
       </c>
       <c r="M196" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.87841530054644812</v>
       </c>
       <c r="N196" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.1440000000000001</v>
       </c>
     </row>
@@ -10484,27 +9511,22 @@
         <v>1</v>
       </c>
       <c r="H197" s="1">
-        <f t="shared" si="6"/>
         <v>5.6639999999999997</v>
       </c>
       <c r="I197" s="16">
         <v>10</v>
       </c>
       <c r="J197" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K197" s="9"/>
       <c r="L197" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M197" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.76553672316384191</v>
       </c>
       <c r="N197" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.3360000000000003</v>
       </c>
     </row>
@@ -10528,27 +9550,22 @@
         <v>1</v>
       </c>
       <c r="H198" s="1">
-        <f t="shared" si="6"/>
         <v>7.823999999999999</v>
       </c>
       <c r="I198" s="16">
         <v>15</v>
       </c>
       <c r="J198" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K198" s="9"/>
       <c r="L198" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
       <c r="M198" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.9171779141104297</v>
       </c>
       <c r="N198" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>7.176000000000001</v>
       </c>
     </row>
@@ -10572,27 +9589,22 @@
         <v>1</v>
       </c>
       <c r="H199" s="1">
-        <f t="shared" si="6"/>
         <v>9.6479999999999979</v>
       </c>
       <c r="I199" s="16">
         <v>15</v>
       </c>
       <c r="J199" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K199" s="9"/>
       <c r="L199" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
       <c r="M199" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.55472636815920429</v>
       </c>
       <c r="N199" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.3520000000000021</v>
       </c>
     </row>
@@ -10616,27 +9628,22 @@
         <v>1</v>
       </c>
       <c r="H200" s="1">
-        <f t="shared" si="6"/>
         <v>7.9320000000000004</v>
       </c>
       <c r="I200" s="16">
         <v>14</v>
       </c>
       <c r="J200" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>14</v>
       </c>
       <c r="K200" s="9"/>
       <c r="L200" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>14</v>
       </c>
       <c r="M200" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.7650025214321734</v>
       </c>
       <c r="N200" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>6.0679999999999996</v>
       </c>
     </row>
@@ -10660,27 +9667,22 @@
         <v>1</v>
       </c>
       <c r="H201" s="1">
-        <f t="shared" si="6"/>
         <v>3.7919999999999998</v>
       </c>
       <c r="I201" s="16">
         <v>7</v>
       </c>
       <c r="J201" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K201" s="9"/>
       <c r="L201" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M201" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.8459915611814347</v>
       </c>
       <c r="N201" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.2080000000000002</v>
       </c>
     </row>
@@ -10704,29 +9706,24 @@
         <v>12</v>
       </c>
       <c r="H202" s="1">
-        <f t="shared" ref="H202:H206" si="7">IFERROR(F202/G202*1.2,"")</f>
         <v>0.45499999999999996</v>
       </c>
       <c r="I202" s="16">
         <v>1.5</v>
       </c>
       <c r="J202" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>18</v>
       </c>
       <c r="K202" s="9">
         <v>0.5</v>
       </c>
       <c r="L202" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
       <c r="M202" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.2967032967032965</v>
       </c>
       <c r="N202" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0449999999999999</v>
       </c>
     </row>
@@ -10750,27 +9747,22 @@
         <v>1</v>
       </c>
       <c r="H203" s="1">
-        <f t="shared" si="7"/>
         <v>8.34</v>
       </c>
       <c r="I203" s="16">
         <v>12</v>
       </c>
       <c r="J203" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K203" s="9"/>
       <c r="L203" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M203" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.4388489208633094</v>
       </c>
       <c r="N203" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.66</v>
       </c>
     </row>
@@ -10794,27 +9786,22 @@
         <v>1</v>
       </c>
       <c r="H204" s="1">
-        <f t="shared" si="7"/>
         <v>8.4599999999999991</v>
       </c>
       <c r="I204" s="16">
         <v>10</v>
       </c>
       <c r="J204" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K204" s="9"/>
       <c r="L204" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M204" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.18203309692671407</v>
       </c>
       <c r="N204" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5400000000000009</v>
       </c>
     </row>
@@ -10838,29 +9825,24 @@
         <v>1</v>
       </c>
       <c r="H205" s="1">
-        <f t="shared" si="7"/>
         <v>2.1840000000000002</v>
       </c>
       <c r="I205" s="16">
         <v>3</v>
       </c>
       <c r="J205" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K205" s="9">
         <v>0.5</v>
       </c>
       <c r="L205" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M205" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.37362637362637352</v>
       </c>
       <c r="N205" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.81599999999999984</v>
       </c>
     </row>
@@ -10884,29 +9866,24 @@
         <v>1</v>
       </c>
       <c r="H206" s="1">
-        <f t="shared" si="7"/>
         <v>1.1399999999999999</v>
       </c>
       <c r="I206" s="16">
         <v>3</v>
       </c>
       <c r="J206" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K206" s="9">
         <v>0.5</v>
       </c>
       <c r="L206" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M206" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.6315789473684212</v>
       </c>
       <c r="N206" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.86</v>
       </c>
     </row>
@@ -10930,27 +9907,22 @@
         <v>1</v>
       </c>
       <c r="H207" s="1">
-        <f t="shared" si="6"/>
         <v>4.38</v>
       </c>
       <c r="I207" s="16">
         <v>9</v>
       </c>
       <c r="J207" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>9</v>
       </c>
       <c r="K207" s="9"/>
       <c r="L207" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>9</v>
       </c>
       <c r="M207" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0547945205479452</v>
       </c>
       <c r="N207" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.62</v>
       </c>
     </row>
@@ -10974,27 +9946,22 @@
         <v>1</v>
       </c>
       <c r="H208" s="1">
-        <f t="shared" ref="H208:H225" si="8">IFERROR(F208/G208*1.2,"")</f>
         <v>6.54</v>
       </c>
       <c r="I208" s="16">
         <v>10</v>
       </c>
       <c r="J208" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K208" s="9"/>
       <c r="L208" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M208" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.52905198776758411</v>
       </c>
       <c r="N208" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.46</v>
       </c>
     </row>
@@ -11018,27 +9985,22 @@
         <v>6</v>
       </c>
       <c r="H209" s="1">
-        <f t="shared" si="8"/>
         <v>0.35600000000000004</v>
       </c>
       <c r="I209" s="16">
         <v>1</v>
       </c>
       <c r="J209" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K209" s="9"/>
       <c r="L209" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1</v>
       </c>
       <c r="M209" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8089887640449434</v>
       </c>
       <c r="N209" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.64399999999999991</v>
       </c>
     </row>
@@ -11062,27 +10024,22 @@
         <v>1</v>
       </c>
       <c r="H210" s="1">
-        <f t="shared" si="8"/>
         <v>2.9279999999999999</v>
       </c>
       <c r="I210" s="16">
         <v>5</v>
       </c>
       <c r="J210" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K210" s="9"/>
       <c r="L210" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M210" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70765027322404372</v>
       </c>
       <c r="N210" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.0720000000000001</v>
       </c>
     </row>
@@ -11106,27 +10063,22 @@
         <v>1</v>
       </c>
       <c r="H211" s="1">
-        <f t="shared" si="8"/>
         <v>3.8519999999999999</v>
       </c>
       <c r="I211" s="16">
         <v>7</v>
       </c>
       <c r="J211" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K211" s="9"/>
       <c r="L211" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M211" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.81723779854620981</v>
       </c>
       <c r="N211" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.1480000000000001</v>
       </c>
     </row>
@@ -11150,27 +10102,22 @@
         <v>1</v>
       </c>
       <c r="H212" s="1">
-        <f t="shared" si="8"/>
         <v>4.1639999999999997</v>
       </c>
       <c r="I212" s="16">
         <v>7</v>
       </c>
       <c r="J212" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K212" s="9"/>
       <c r="L212" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M212" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.68107588856868406</v>
       </c>
       <c r="N212" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.8360000000000003</v>
       </c>
     </row>
@@ -11194,27 +10141,22 @@
         <v>1</v>
       </c>
       <c r="H213" s="1">
-        <f t="shared" si="8"/>
         <v>3.7319999999999998</v>
       </c>
       <c r="I213" s="16">
         <v>7</v>
       </c>
       <c r="J213" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K213" s="9"/>
       <c r="L213" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M213" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.87566988210075036</v>
       </c>
       <c r="N213" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.2680000000000002</v>
       </c>
     </row>
@@ -11238,27 +10180,22 @@
         <v>1</v>
       </c>
       <c r="H214" s="1">
-        <f t="shared" si="8"/>
         <v>5.6040000000000001</v>
       </c>
       <c r="I214" s="16">
         <v>10</v>
       </c>
       <c r="J214" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K214" s="9"/>
       <c r="L214" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M214" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.78443968593861524</v>
       </c>
       <c r="N214" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.3959999999999999</v>
       </c>
     </row>
@@ -11282,27 +10219,22 @@
         <v>1</v>
       </c>
       <c r="H215" s="1">
-        <f t="shared" si="8"/>
         <v>8.6519999999999992</v>
       </c>
       <c r="I215" s="16">
         <v>15</v>
       </c>
       <c r="J215" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K215" s="9"/>
       <c r="L215" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
       <c r="M215" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.73370319001386974</v>
       </c>
       <c r="N215" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>6.3480000000000008</v>
       </c>
     </row>
@@ -11326,27 +10258,22 @@
         <v>1</v>
       </c>
       <c r="H216" s="1">
-        <f t="shared" si="8"/>
         <v>7.1040000000000001</v>
       </c>
       <c r="I216" s="16">
         <v>13</v>
       </c>
       <c r="J216" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>13</v>
       </c>
       <c r="K216" s="9"/>
       <c r="L216" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>13</v>
       </c>
       <c r="M216" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.82995495495495497</v>
       </c>
       <c r="N216" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.8959999999999999</v>
       </c>
     </row>
@@ -11370,27 +10297,22 @@
         <v>1</v>
       </c>
       <c r="H217" s="1">
-        <f t="shared" si="8"/>
         <v>2.6519999999999997</v>
       </c>
       <c r="I217" s="16">
         <v>5</v>
       </c>
       <c r="J217" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K217" s="9"/>
       <c r="L217" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M217" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.88536953242835614</v>
       </c>
       <c r="N217" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.3480000000000003</v>
       </c>
     </row>
@@ -11414,27 +10336,22 @@
         <v>1</v>
       </c>
       <c r="H218" s="1">
-        <f t="shared" si="8"/>
         <v>3.0599999999999996</v>
       </c>
       <c r="I218" s="16">
         <v>6</v>
       </c>
       <c r="J218" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K218" s="9"/>
       <c r="L218" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M218" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.96078431372549045</v>
       </c>
       <c r="N218" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.9400000000000004</v>
       </c>
     </row>
@@ -11458,27 +10375,22 @@
         <v>1</v>
       </c>
       <c r="H219" s="1">
-        <f t="shared" si="8"/>
         <v>3.4319999999999999</v>
       </c>
       <c r="I219" s="16">
         <v>7</v>
       </c>
       <c r="J219" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K219" s="9"/>
       <c r="L219" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M219" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0396270396270397</v>
       </c>
       <c r="N219" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.5680000000000001</v>
       </c>
     </row>
@@ -11502,27 +10414,22 @@
         <v>1</v>
       </c>
       <c r="H220" s="1">
-        <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
       <c r="I220" s="16">
         <v>10</v>
       </c>
       <c r="J220" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K220" s="9"/>
       <c r="L220" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M220" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0833333333333335</v>
       </c>
       <c r="N220" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.2</v>
       </c>
     </row>
@@ -11546,27 +10453,22 @@
         <v>1</v>
       </c>
       <c r="H221" s="1">
-        <f t="shared" si="8"/>
         <v>2.34</v>
       </c>
       <c r="I221" s="16">
         <v>6</v>
       </c>
       <c r="J221" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K221" s="9"/>
       <c r="L221" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M221" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.5641025641025643</v>
       </c>
       <c r="N221" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.66</v>
       </c>
     </row>
@@ -11590,27 +10492,22 @@
         <v>8</v>
       </c>
       <c r="H222" s="1">
-        <f t="shared" si="8"/>
         <v>0.56699999999999995</v>
       </c>
       <c r="I222" s="16">
         <v>1.25</v>
       </c>
       <c r="J222" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K222" s="9"/>
       <c r="L222" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.25</v>
       </c>
       <c r="M222" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2045855379188715</v>
       </c>
       <c r="N222" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.68300000000000005</v>
       </c>
     </row>
@@ -11640,20 +10537,16 @@
         <v>2</v>
       </c>
       <c r="J223" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K223" s="9"/>
       <c r="L223" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
       <c r="M223" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1052631578947369</v>
       </c>
       <c r="N223" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.05</v>
       </c>
     </row>
@@ -11677,27 +10570,22 @@
         <v>1</v>
       </c>
       <c r="H224" s="1">
-        <f t="shared" si="8"/>
         <v>2.952</v>
       </c>
       <c r="I224" s="16">
         <v>7</v>
       </c>
       <c r="J224" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K224" s="9"/>
       <c r="L224" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M224" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3712737127371275</v>
       </c>
       <c r="N224" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.048</v>
       </c>
     </row>
@@ -11721,27 +10609,22 @@
         <v>1</v>
       </c>
       <c r="H225" s="1">
-        <f t="shared" si="8"/>
         <v>3.948</v>
       </c>
       <c r="I225" s="16">
         <v>9</v>
       </c>
       <c r="J225" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>9</v>
       </c>
       <c r="K225" s="9"/>
       <c r="L225" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>9</v>
       </c>
       <c r="M225" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2796352583586625</v>
       </c>
       <c r="N225" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.0519999999999996</v>
       </c>
     </row>
@@ -11765,27 +10648,22 @@
         <v>1</v>
       </c>
       <c r="H226" s="1">
-        <f t="shared" ref="H226:H244" si="9">IFERROR(F226/G226*1.2,"")</f>
         <v>2.5319999999999996</v>
       </c>
       <c r="I226" s="16">
         <v>5</v>
       </c>
       <c r="J226" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K226" s="9"/>
       <c r="L226" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M226" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.97472353870458173</v>
       </c>
       <c r="N226" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.4680000000000004</v>
       </c>
     </row>
@@ -11809,27 +10687,22 @@
         <v>1</v>
       </c>
       <c r="H227" s="1">
-        <f t="shared" si="9"/>
         <v>2.5559999999999996</v>
       </c>
       <c r="I227" s="16">
         <v>5</v>
       </c>
       <c r="J227" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K227" s="9"/>
       <c r="L227" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M227" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.95618153364632263</v>
       </c>
       <c r="N227" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.4440000000000004</v>
       </c>
     </row>
@@ -11853,27 +10726,22 @@
         <v>20</v>
       </c>
       <c r="H228" s="1">
-        <f t="shared" si="9"/>
         <v>0.1152</v>
       </c>
       <c r="I228" s="16">
         <v>0.5</v>
       </c>
       <c r="J228" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K228" s="9"/>
       <c r="L228" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0.5</v>
       </c>
       <c r="M228" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.3402777777777781</v>
       </c>
       <c r="N228" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.38480000000000003</v>
       </c>
     </row>
@@ -11897,27 +10765,22 @@
         <v>1</v>
       </c>
       <c r="H229" s="1">
-        <f t="shared" si="9"/>
         <v>6.8879999999999999</v>
       </c>
       <c r="I229" s="16">
         <v>10</v>
       </c>
       <c r="J229" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K229" s="9"/>
       <c r="L229" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M229" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.45180023228803717</v>
       </c>
       <c r="N229" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.1120000000000001</v>
       </c>
     </row>
@@ -11941,27 +10804,22 @@
         <v>1</v>
       </c>
       <c r="H230" s="1">
-        <f t="shared" si="9"/>
         <v>5.88</v>
       </c>
       <c r="I230" s="16">
         <v>9</v>
       </c>
       <c r="J230" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>9</v>
       </c>
       <c r="K230" s="9"/>
       <c r="L230" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>9</v>
       </c>
       <c r="M230" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.53061224489795922</v>
       </c>
       <c r="N230" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.12</v>
       </c>
     </row>
@@ -11985,27 +10843,22 @@
         <v>1</v>
       </c>
       <c r="H231" s="1">
-        <f t="shared" si="9"/>
         <v>7.3079999999999998</v>
       </c>
       <c r="I231" s="16">
         <v>10</v>
       </c>
       <c r="J231" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K231" s="9"/>
       <c r="L231" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M231" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.3683634373289546</v>
       </c>
       <c r="N231" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.6920000000000002</v>
       </c>
     </row>
@@ -12029,27 +10882,22 @@
         <v>1</v>
       </c>
       <c r="H232" s="1">
-        <f t="shared" si="9"/>
         <v>2.2200000000000002</v>
       </c>
       <c r="I232" s="16">
         <v>3.5</v>
       </c>
       <c r="J232" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K232" s="9"/>
       <c r="L232" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M232" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.57657657657657646</v>
       </c>
       <c r="N232" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2799999999999998</v>
       </c>
     </row>
@@ -12073,27 +10921,22 @@
         <v>1</v>
       </c>
       <c r="H233" s="1">
-        <f t="shared" si="9"/>
         <v>10.835999999999999</v>
       </c>
       <c r="I233" s="16">
         <v>15</v>
       </c>
       <c r="J233" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K233" s="9"/>
       <c r="L233" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
       <c r="M233" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.38427464008859374</v>
       </c>
       <c r="N233" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.1640000000000015</v>
       </c>
     </row>
@@ -12117,27 +10960,22 @@
         <v>1</v>
       </c>
       <c r="H234" s="1">
-        <f t="shared" si="9"/>
         <v>4.38</v>
       </c>
       <c r="I234" s="16">
         <v>7</v>
       </c>
       <c r="J234" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K234" s="9"/>
       <c r="L234" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M234" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.59817351598173518</v>
       </c>
       <c r="N234" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.62</v>
       </c>
     </row>
@@ -12161,27 +10999,22 @@
         <v>1</v>
       </c>
       <c r="H235" s="1">
-        <f t="shared" si="9"/>
         <v>5.3999999999999995</v>
       </c>
       <c r="I235" s="16">
         <v>9</v>
       </c>
       <c r="J235" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>9</v>
       </c>
       <c r="K235" s="9"/>
       <c r="L235" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>9</v>
       </c>
       <c r="M235" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.66666666666666685</v>
       </c>
       <c r="N235" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.6000000000000005</v>
       </c>
     </row>
@@ -12205,27 +11038,22 @@
         <v>1</v>
       </c>
       <c r="H236" s="1">
-        <f t="shared" si="9"/>
         <v>2.76</v>
       </c>
       <c r="I236" s="16">
         <v>5</v>
       </c>
       <c r="J236" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K236" s="9"/>
       <c r="L236" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M236" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.81159420289855089</v>
       </c>
       <c r="N236" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.2400000000000002</v>
       </c>
     </row>
@@ -12249,27 +11077,22 @@
         <v>1</v>
       </c>
       <c r="H237" s="1">
-        <f t="shared" si="9"/>
         <v>12.756</v>
       </c>
       <c r="I237" s="16">
         <v>17</v>
       </c>
       <c r="J237" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>17</v>
       </c>
       <c r="K237" s="9"/>
       <c r="L237" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>17</v>
       </c>
       <c r="M237" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.332706177485105</v>
       </c>
       <c r="N237" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.2439999999999998</v>
       </c>
     </row>
@@ -12293,27 +11116,22 @@
         <v>1</v>
       </c>
       <c r="H238" s="1">
-        <f t="shared" si="9"/>
         <v>13.92</v>
       </c>
       <c r="I238" s="16">
         <v>17</v>
       </c>
       <c r="J238" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>17</v>
       </c>
       <c r="K238" s="9"/>
       <c r="L238" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>17</v>
       </c>
       <c r="M238" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.22126436781609196</v>
       </c>
       <c r="N238" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.08</v>
       </c>
     </row>
@@ -12337,27 +11155,22 @@
         <v>1</v>
       </c>
       <c r="H239" s="1">
-        <f t="shared" si="9"/>
         <v>9.9479999999999986</v>
       </c>
       <c r="I239" s="16">
         <v>15</v>
       </c>
       <c r="J239" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K239" s="9"/>
       <c r="L239" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
       <c r="M239" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.50784077201447553</v>
       </c>
       <c r="N239" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.0520000000000014</v>
       </c>
     </row>
@@ -12381,27 +11194,22 @@
         <v>3</v>
       </c>
       <c r="H240" s="1">
-        <f t="shared" si="9"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="I240" s="16">
         <v>2</v>
       </c>
       <c r="J240" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K240" s="9"/>
       <c r="L240" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
       <c r="M240" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2222222222222225</v>
       </c>
       <c r="N240" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -12425,27 +11233,22 @@
         <v>1</v>
       </c>
       <c r="H241" s="1">
-        <f t="shared" si="9"/>
         <v>3.0599999999999996</v>
       </c>
       <c r="I241" s="16">
         <v>5</v>
       </c>
       <c r="J241" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K241" s="9"/>
       <c r="L241" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M241" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.63398692810457535</v>
       </c>
       <c r="N241" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.9400000000000004</v>
       </c>
     </row>
@@ -12469,27 +11272,22 @@
         <v>1</v>
       </c>
       <c r="H242" s="1">
-        <f t="shared" si="9"/>
         <v>2.016</v>
       </c>
       <c r="I242" s="16">
         <v>4</v>
       </c>
       <c r="J242" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K242" s="9"/>
       <c r="L242" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M242" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.98412698412698407</v>
       </c>
       <c r="N242" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.984</v>
       </c>
     </row>
@@ -12513,27 +11311,22 @@
         <v>1</v>
       </c>
       <c r="H243" s="1">
-        <f t="shared" si="9"/>
         <v>1.296</v>
       </c>
       <c r="I243" s="16">
         <v>3</v>
       </c>
       <c r="J243" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K243" s="9"/>
       <c r="L243" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3</v>
       </c>
       <c r="M243" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3148148148148147</v>
       </c>
       <c r="N243" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.704</v>
       </c>
     </row>
@@ -12557,27 +11350,22 @@
         <v>1</v>
       </c>
       <c r="H244" s="1">
-        <f t="shared" si="9"/>
         <v>1.8719999999999999</v>
       </c>
       <c r="I244" s="16">
         <v>4</v>
       </c>
       <c r="J244" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K244" s="9"/>
       <c r="L244" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M244" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1367521367521369</v>
       </c>
       <c r="N244" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.1280000000000001</v>
       </c>
     </row>
@@ -12601,27 +11389,22 @@
         <v>1</v>
       </c>
       <c r="H245" s="1">
-        <f t="shared" ref="H245:H257" si="10">IFERROR(F245/G245*1.2,"")</f>
         <v>1.74</v>
       </c>
       <c r="I245" s="16">
         <v>4</v>
       </c>
       <c r="J245" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K245" s="9"/>
       <c r="L245" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
       <c r="M245" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.2988505747126435</v>
       </c>
       <c r="N245" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.2599999999999998</v>
       </c>
     </row>
@@ -12645,29 +11428,24 @@
         <v>1</v>
       </c>
       <c r="H246" s="1">
-        <f t="shared" si="10"/>
         <v>1.5720000000000001</v>
       </c>
       <c r="I246" s="16">
         <v>3</v>
       </c>
       <c r="J246" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3</v>
       </c>
       <c r="K246" s="9">
         <v>0.5</v>
       </c>
       <c r="L246" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M246" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.90839694656488545</v>
       </c>
       <c r="N246" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.4279999999999999</v>
       </c>
     </row>
@@ -12691,27 +11469,22 @@
         <v>1</v>
       </c>
       <c r="H247" s="1">
-        <f t="shared" si="10"/>
         <v>10.596</v>
       </c>
       <c r="I247" s="16">
         <v>15</v>
       </c>
       <c r="J247" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K247" s="9"/>
       <c r="L247" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
       <c r="M247" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.41562853907134767</v>
       </c>
       <c r="N247" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.4039999999999999</v>
       </c>
     </row>
@@ -12735,27 +11508,22 @@
         <v>1</v>
       </c>
       <c r="H248" s="1">
-        <f t="shared" si="10"/>
         <v>9.5879999999999992</v>
       </c>
       <c r="I248" s="16">
         <v>13</v>
       </c>
       <c r="J248" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>13</v>
       </c>
       <c r="K248" s="9"/>
       <c r="L248" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>13</v>
       </c>
       <c r="M248" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.35586149353358376</v>
       </c>
       <c r="N248" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.4120000000000008</v>
       </c>
     </row>
@@ -12779,27 +11547,22 @@
         <v>1</v>
       </c>
       <c r="H249" s="1">
-        <f t="shared" si="10"/>
         <v>6.24</v>
       </c>
       <c r="I249" s="16">
         <v>10</v>
       </c>
       <c r="J249" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K249" s="9"/>
       <c r="L249" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M249" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.60256410256410253</v>
       </c>
       <c r="N249" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.76</v>
       </c>
     </row>
@@ -12823,27 +11586,22 @@
         <v>1</v>
       </c>
       <c r="H250" s="1">
-        <f t="shared" si="10"/>
         <v>6.1320000000000006</v>
       </c>
       <c r="I250" s="16">
         <v>10</v>
       </c>
       <c r="J250" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K250" s="9"/>
       <c r="L250" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M250" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.63078930202217853</v>
       </c>
       <c r="N250" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.8679999999999994</v>
       </c>
     </row>
@@ -12867,27 +11625,22 @@
         <v>1</v>
       </c>
       <c r="H251" s="1">
-        <f t="shared" si="10"/>
         <v>3.6959999999999997</v>
       </c>
       <c r="I251" s="16">
         <v>7</v>
       </c>
       <c r="J251" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K251" s="9"/>
       <c r="L251" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M251" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.89393939393939403</v>
       </c>
       <c r="N251" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.3040000000000003</v>
       </c>
     </row>
@@ -12911,27 +11664,22 @@
         <v>1</v>
       </c>
       <c r="H252" s="1">
-        <f t="shared" si="10"/>
         <v>7.7519999999999998</v>
       </c>
       <c r="I252" s="16">
         <v>13</v>
       </c>
       <c r="J252" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>13</v>
       </c>
       <c r="K252" s="9"/>
       <c r="L252" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>13</v>
       </c>
       <c r="M252" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.67698658410732715</v>
       </c>
       <c r="N252" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.2480000000000002</v>
       </c>
     </row>
@@ -12955,27 +11703,22 @@
         <v>1</v>
       </c>
       <c r="H253" s="1">
-        <f t="shared" si="10"/>
         <v>6.5039999999999996</v>
       </c>
       <c r="I253" s="16">
         <v>12</v>
       </c>
       <c r="J253" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K253" s="9"/>
       <c r="L253" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M253" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.84501845018450195</v>
       </c>
       <c r="N253" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>5.4960000000000004</v>
       </c>
     </row>
@@ -12999,27 +11742,22 @@
         <v>1</v>
       </c>
       <c r="H254" s="1">
-        <f t="shared" si="10"/>
         <v>3.996</v>
       </c>
       <c r="I254" s="16">
         <v>7</v>
       </c>
       <c r="J254" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K254" s="9"/>
       <c r="L254" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M254" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.7517517517517518</v>
       </c>
       <c r="N254" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.004</v>
       </c>
     </row>
@@ -13043,27 +11781,22 @@
         <v>1</v>
       </c>
       <c r="H255" s="1">
-        <f t="shared" si="10"/>
         <v>4.2119999999999997</v>
       </c>
       <c r="I255" s="16">
         <v>7</v>
       </c>
       <c r="J255" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K255" s="9"/>
       <c r="L255" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
       <c r="M255" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.66191832858499533</v>
       </c>
       <c r="N255" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.7880000000000003</v>
       </c>
     </row>
@@ -13087,27 +11820,22 @@
         <v>1</v>
       </c>
       <c r="H256" s="1">
-        <f t="shared" si="10"/>
         <v>4.6920000000000002</v>
       </c>
       <c r="I256" s="16">
         <v>8</v>
       </c>
       <c r="J256" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K256" s="9"/>
       <c r="L256" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M256" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70502983802216534</v>
       </c>
       <c r="N256" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.3079999999999998</v>
       </c>
     </row>
@@ -13131,27 +11859,22 @@
         <v>1</v>
       </c>
       <c r="H257" s="1">
-        <f t="shared" si="10"/>
         <v>3.492</v>
       </c>
       <c r="I257" s="16">
         <v>6</v>
       </c>
       <c r="J257" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K257" s="9"/>
       <c r="L257" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M257" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.71821305841924399</v>
       </c>
       <c r="N257" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.508</v>
       </c>
     </row>
@@ -13175,27 +11898,22 @@
         <v>1</v>
       </c>
       <c r="H258" s="1">
-        <f t="shared" ref="H258:H271" si="11">IFERROR(F258/G258*1.2,"")</f>
         <v>2.52</v>
       </c>
       <c r="I258" s="16">
         <v>6</v>
       </c>
       <c r="J258" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K258" s="9"/>
       <c r="L258" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M258" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.3809523809523809</v>
       </c>
       <c r="N258" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.48</v>
       </c>
     </row>
@@ -13219,27 +11937,22 @@
         <v>1</v>
       </c>
       <c r="H259" s="1">
-        <f t="shared" si="11"/>
         <v>6.4559999999999995</v>
       </c>
       <c r="I259" s="16">
         <v>11</v>
       </c>
       <c r="J259" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>11</v>
       </c>
       <c r="K259" s="9"/>
       <c r="L259" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>11</v>
       </c>
       <c r="M259" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70384138785625783</v>
       </c>
       <c r="N259" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.5440000000000005</v>
       </c>
     </row>
@@ -13263,27 +11976,22 @@
         <v>1</v>
       </c>
       <c r="H260" s="1">
-        <f t="shared" si="11"/>
         <v>5.9880000000000004</v>
       </c>
       <c r="I260" s="16">
         <v>12</v>
       </c>
       <c r="J260" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K260" s="9"/>
       <c r="L260" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M260" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.0040080160320639</v>
       </c>
       <c r="N260" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>6.0119999999999996</v>
       </c>
     </row>
@@ -13307,27 +12015,22 @@
         <v>1</v>
       </c>
       <c r="H261" s="1">
-        <f t="shared" si="11"/>
         <v>5.0280000000000005</v>
       </c>
       <c r="I261" s="16">
         <v>8</v>
       </c>
       <c r="J261" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K261" s="9"/>
       <c r="L261" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M261" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.59108989657915656</v>
       </c>
       <c r="N261" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.9719999999999995</v>
       </c>
     </row>
@@ -13351,27 +12054,22 @@
         <v>1</v>
       </c>
       <c r="H262" s="1">
-        <f t="shared" si="11"/>
         <v>5.46</v>
       </c>
       <c r="I262" s="16">
         <v>10</v>
       </c>
       <c r="J262" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K262" s="9"/>
       <c r="L262" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M262" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.83150183150183155</v>
       </c>
       <c r="N262" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.54</v>
       </c>
     </row>
@@ -13395,27 +12093,22 @@
         <v>1</v>
       </c>
       <c r="H263" s="1">
-        <f t="shared" si="11"/>
         <v>5.0159999999999991</v>
       </c>
       <c r="I263" s="16">
         <v>12</v>
       </c>
       <c r="J263" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>12</v>
       </c>
       <c r="K263" s="9"/>
       <c r="L263" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>12</v>
       </c>
       <c r="M263" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.392344497607656</v>
       </c>
       <c r="N263" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>6.9840000000000009</v>
       </c>
     </row>
@@ -13439,27 +12132,22 @@
         <v>1</v>
       </c>
       <c r="H264" s="1">
-        <f t="shared" si="11"/>
         <v>5.0519999999999996</v>
       </c>
       <c r="I264" s="16">
         <v>10</v>
       </c>
       <c r="J264" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K264" s="9"/>
       <c r="L264" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M264" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.9794140934283454</v>
       </c>
       <c r="N264" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.9480000000000004</v>
       </c>
     </row>
@@ -13483,27 +12171,22 @@
         <v>1</v>
       </c>
       <c r="H265" s="1">
-        <f t="shared" si="11"/>
         <v>3.2759999999999998</v>
       </c>
       <c r="I265" s="16">
         <v>6</v>
       </c>
       <c r="J265" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>6</v>
       </c>
       <c r="K265" s="9"/>
       <c r="L265" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>6</v>
       </c>
       <c r="M265" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.83150183150183166</v>
       </c>
       <c r="N265" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.7240000000000002</v>
       </c>
     </row>
@@ -13527,27 +12210,22 @@
         <v>10</v>
       </c>
       <c r="H266" s="1">
-        <f t="shared" si="11"/>
         <v>0.79559999999999997</v>
       </c>
       <c r="I266" s="16">
         <v>1.5</v>
       </c>
       <c r="J266" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K266" s="9"/>
       <c r="L266" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.5</v>
       </c>
       <c r="M266" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.88536953242835603</v>
       </c>
       <c r="N266" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.70440000000000003</v>
       </c>
     </row>
@@ -13571,27 +12249,22 @@
         <v>8</v>
       </c>
       <c r="H267" s="1">
-        <f t="shared" si="11"/>
         <v>0.63</v>
       </c>
       <c r="I267" s="16">
         <v>1.25</v>
       </c>
       <c r="J267" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K267" s="9"/>
       <c r="L267" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>1.25</v>
       </c>
       <c r="M267" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.98412698412698407</v>
       </c>
       <c r="N267" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.62</v>
       </c>
     </row>
@@ -13615,27 +12288,22 @@
         <v>1</v>
       </c>
       <c r="H268" s="1">
-        <f t="shared" si="11"/>
         <v>3.1319999999999997</v>
       </c>
       <c r="I268" s="16">
         <v>3.5</v>
       </c>
       <c r="J268" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>3.5</v>
       </c>
       <c r="K268" s="9"/>
       <c r="L268" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>3.5</v>
       </c>
       <c r="M268" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.11749680715197969</v>
       </c>
       <c r="N268" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.36800000000000033</v>
       </c>
     </row>
@@ -13659,27 +12327,22 @@
         <v>1</v>
       </c>
       <c r="H269" s="1">
-        <f t="shared" si="11"/>
         <v>5.7</v>
       </c>
       <c r="I269" s="16">
         <v>8</v>
       </c>
       <c r="J269" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>8</v>
       </c>
       <c r="K269" s="9"/>
       <c r="L269" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>8</v>
       </c>
       <c r="M269" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.40350877192982454</v>
       </c>
       <c r="N269" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -13703,27 +12366,22 @@
         <v>1</v>
       </c>
       <c r="H270" s="1">
-        <f t="shared" si="11"/>
         <v>2.5559999999999996</v>
       </c>
       <c r="I270" s="16">
         <v>5</v>
       </c>
       <c r="J270" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>5</v>
       </c>
       <c r="K270" s="9"/>
       <c r="L270" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>5</v>
       </c>
       <c r="M270" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.95618153364632263</v>
       </c>
       <c r="N270" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.4440000000000004</v>
       </c>
     </row>
@@ -13747,27 +12405,22 @@
         <v>1</v>
       </c>
       <c r="H271" s="1">
-        <f t="shared" si="11"/>
         <v>5.1840000000000002</v>
       </c>
       <c r="I271" s="16">
         <v>10</v>
       </c>
       <c r="J271" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K271" s="9"/>
       <c r="L271" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>10</v>
       </c>
       <c r="M271" s="17">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>0.92901234567901225</v>
       </c>
       <c r="N271" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>4.8159999999999998</v>
       </c>
     </row>
@@ -13787,31 +12440,26 @@
       <c r="F272" s="13">
         <v>10.84</v>
       </c>
-      <c r="G272" s="20">
-        <v>1</v>
-      </c>
-      <c r="H272" s="21">
-        <f t="shared" ref="H272:H287" si="12">IFERROR(F272/G272*1.2,"")</f>
+      <c r="G272" s="14">
+        <v>1</v>
+      </c>
+      <c r="H272" s="1">
         <v>13.007999999999999</v>
       </c>
       <c r="I272" s="16">
         <v>15</v>
       </c>
       <c r="J272" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>15</v>
       </c>
       <c r="K272" s="9"/>
       <c r="L272" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>15</v>
       </c>
-      <c r="M272" s="22">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
+      <c r="M272" s="17">
         <v>0.15313653136531374</v>
       </c>
       <c r="N272" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.9920000000000009</v>
       </c>
     </row>
@@ -13831,31 +12479,26 @@
       <c r="F273" s="13">
         <v>3.57</v>
       </c>
-      <c r="G273" s="20">
-        <v>1</v>
-      </c>
-      <c r="H273" s="21">
-        <f t="shared" si="12"/>
+      <c r="G273" s="14">
+        <v>1</v>
+      </c>
+      <c r="H273" s="1">
         <v>4.2839999999999998</v>
       </c>
       <c r="I273" s="16">
         <v>7</v>
       </c>
       <c r="J273" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K273" s="9"/>
       <c r="L273" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
-      <c r="M273" s="22">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
+      <c r="M273" s="17">
         <v>0.63398692810457524</v>
       </c>
       <c r="N273" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.7160000000000002</v>
       </c>
     </row>
@@ -13875,31 +12518,26 @@
       <c r="F274" s="13">
         <v>3.39</v>
       </c>
-      <c r="G274" s="20">
-        <v>1</v>
-      </c>
-      <c r="H274" s="21">
-        <f t="shared" si="12"/>
+      <c r="G274" s="14">
+        <v>1</v>
+      </c>
+      <c r="H274" s="1">
         <v>4.0679999999999996</v>
       </c>
       <c r="I274" s="16">
         <v>7</v>
       </c>
       <c r="J274" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K274" s="9"/>
       <c r="L274" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
-      <c r="M274" s="22">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
+      <c r="M274" s="17">
         <v>0.72074729596853504</v>
       </c>
       <c r="N274" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.9320000000000004</v>
       </c>
     </row>
@@ -13919,31 +12557,26 @@
       <c r="F275" s="13">
         <v>3.33</v>
       </c>
-      <c r="G275" s="20">
-        <v>1</v>
-      </c>
-      <c r="H275" s="21">
-        <f t="shared" si="12"/>
+      <c r="G275" s="14">
+        <v>1</v>
+      </c>
+      <c r="H275" s="1">
         <v>3.996</v>
       </c>
       <c r="I275" s="16">
         <v>7</v>
       </c>
       <c r="J275" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K275" s="9"/>
       <c r="L275" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
-      <c r="M275" s="22">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
+      <c r="M275" s="17">
         <v>0.7517517517517518</v>
       </c>
       <c r="N275" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>3.004</v>
       </c>
     </row>
@@ -13963,31 +12596,26 @@
       <c r="F276" s="13">
         <v>1.68</v>
       </c>
-      <c r="G276" s="20">
-        <v>1</v>
-      </c>
-      <c r="H276" s="21">
-        <f t="shared" si="12"/>
+      <c r="G276" s="14">
+        <v>1</v>
+      </c>
+      <c r="H276" s="1">
         <v>2.016</v>
       </c>
       <c r="I276" s="16">
         <v>4</v>
       </c>
       <c r="J276" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K276" s="9"/>
       <c r="L276" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
-      <c r="M276" s="22">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
+      <c r="M276" s="17">
         <v>0.98412698412698407</v>
       </c>
       <c r="N276" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.984</v>
       </c>
     </row>
@@ -14007,31 +12635,26 @@
       <c r="F277" s="13">
         <v>3.35</v>
       </c>
-      <c r="G277" s="20">
-        <v>1</v>
-      </c>
-      <c r="H277" s="21">
-        <f t="shared" si="12"/>
+      <c r="G277" s="14">
+        <v>1</v>
+      </c>
+      <c r="H277" s="1">
         <v>4.0199999999999996</v>
       </c>
       <c r="I277" s="16">
         <v>7</v>
       </c>
       <c r="J277" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>7</v>
       </c>
       <c r="K277" s="9"/>
       <c r="L277" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>7</v>
       </c>
-      <c r="M277" s="22">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
+      <c r="M277" s="17">
         <v>0.74129353233830864</v>
       </c>
       <c r="N277" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>2.9800000000000004</v>
       </c>
     </row>
@@ -14051,31 +12674,26 @@
       <c r="F278" s="13">
         <v>3.54</v>
       </c>
-      <c r="G278" s="20">
+      <c r="G278" s="14">
         <v>5</v>
       </c>
-      <c r="H278" s="21">
-        <f t="shared" si="12"/>
+      <c r="H278" s="1">
         <v>0.84959999999999991</v>
       </c>
       <c r="I278" s="16">
         <v>2</v>
       </c>
       <c r="J278" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>10</v>
       </c>
       <c r="K278" s="9"/>
       <c r="L278" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>2</v>
       </c>
-      <c r="M278" s="22">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
+      <c r="M278" s="17">
         <v>1.3540489642184559</v>
       </c>
       <c r="N278" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.1504000000000001</v>
       </c>
     </row>
@@ -14095,248 +12713,203 @@
       <c r="F279" s="13">
         <v>1.76</v>
       </c>
-      <c r="G279" s="20">
-        <v>1</v>
-      </c>
-      <c r="H279" s="21">
-        <f t="shared" si="12"/>
+      <c r="G279" s="14">
+        <v>1</v>
+      </c>
+      <c r="H279" s="1">
         <v>2.1120000000000001</v>
       </c>
       <c r="I279" s="16">
         <v>4</v>
       </c>
       <c r="J279" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>4</v>
       </c>
       <c r="K279" s="9"/>
       <c r="L279" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>4</v>
       </c>
-      <c r="M279" s="22">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
+      <c r="M279" s="17">
         <v>0.89393939393939381</v>
       </c>
       <c r="N279" s="18">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
         <v>1.8879999999999999</v>
       </c>
     </row>
     <row r="280" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E280" s="15"/>
       <c r="F280" s="13"/>
-      <c r="G280" s="20"/>
-      <c r="H280" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G280" s="14"/>
+      <c r="H280" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I280" s="16"/>
       <c r="J280" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>0</v>
       </c>
       <c r="K280" s="9"/>
       <c r="L280" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0</v>
       </c>
-      <c r="M280" s="22" t="str">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
-      </c>
-      <c r="N280" s="18" t="str">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
+      <c r="M280" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N280" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="281" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E281" s="15"/>
       <c r="F281" s="13"/>
-      <c r="G281" s="20"/>
-      <c r="H281" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G281" s="14"/>
+      <c r="H281" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I281" s="16"/>
       <c r="J281" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>0</v>
       </c>
       <c r="K281" s="9"/>
       <c r="L281" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0</v>
       </c>
-      <c r="M281" s="22" t="str">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
-      </c>
-      <c r="N281" s="18" t="str">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
+      <c r="M281" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N281" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E282" s="15"/>
       <c r="F282" s="13"/>
-      <c r="G282" s="20"/>
-      <c r="H282" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G282" s="14"/>
+      <c r="H282" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I282" s="16"/>
       <c r="J282" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>0</v>
       </c>
       <c r="K282" s="9"/>
       <c r="L282" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0</v>
       </c>
-      <c r="M282" s="22" t="str">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
-      </c>
-      <c r="N282" s="18" t="str">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
+      <c r="M282" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N282" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="283" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E283" s="15"/>
       <c r="F283" s="13"/>
-      <c r="G283" s="20"/>
-      <c r="H283" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G283" s="14"/>
+      <c r="H283" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I283" s="16"/>
       <c r="J283" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>0</v>
       </c>
       <c r="K283" s="9"/>
       <c r="L283" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0</v>
       </c>
-      <c r="M283" s="22" t="str">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
-      </c>
-      <c r="N283" s="18" t="str">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
+      <c r="M283" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N283" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="284" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E284" s="15"/>
       <c r="F284" s="13"/>
-      <c r="G284" s="20"/>
-      <c r="H284" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G284" s="14"/>
+      <c r="H284" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I284" s="16"/>
       <c r="J284" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>0</v>
       </c>
       <c r="K284" s="9"/>
       <c r="L284" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0</v>
       </c>
-      <c r="M284" s="22" t="str">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
-      </c>
-      <c r="N284" s="18" t="str">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
+      <c r="M284" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N284" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="285" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E285" s="15"/>
       <c r="F285" s="13"/>
-      <c r="G285" s="20"/>
-      <c r="H285" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G285" s="14"/>
+      <c r="H285" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I285" s="16"/>
       <c r="J285" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>0</v>
       </c>
       <c r="K285" s="9"/>
       <c r="L285" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0</v>
       </c>
-      <c r="M285" s="22" t="str">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
-      </c>
-      <c r="N285" s="18" t="str">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
+      <c r="M285" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N285" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="286" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E286" s="15"/>
       <c r="F286" s="13"/>
-      <c r="G286" s="20"/>
-      <c r="H286" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G286" s="14"/>
+      <c r="H286" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I286" s="16"/>
       <c r="J286" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>0</v>
       </c>
       <c r="K286" s="9"/>
       <c r="L286" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0</v>
       </c>
-      <c r="M286" s="22" t="str">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
-      </c>
-      <c r="N286" s="18" t="str">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
+      <c r="M286" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N286" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="287" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E287" s="15"/>
       <c r="F287" s="13"/>
-      <c r="G287" s="20"/>
-      <c r="H287" s="21" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="G287" s="14"/>
+      <c r="H287" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="I287" s="16"/>
       <c r="J287" s="2">
-        <f>Tabla1[[#This Row],[PVF]]*Tabla1[[#This Row],[UNIDADES]]</f>
         <v>0</v>
       </c>
       <c r="K287" s="9"/>
       <c r="L287" s="10">
-        <f>Tabla1[[#This Row],[EMP.]]+Tabla1[[#This Row],[PVF]]</f>
         <v>0</v>
       </c>
-      <c r="M287" s="22" t="str">
-        <f>IFERROR((Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]])/Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
-      </c>
-      <c r="N287" s="18" t="str">
-        <f>IFERROR(Tabla1[[#This Row],[PVF]]-Tabla1[[#This Row],[PRECIO U.]],"")</f>
-        <v/>
+      <c r="M287" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N287" s="18" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="288" spans="2:14" x14ac:dyDescent="0.25">
